--- a/storage/ubicaciones.xlsx
+++ b/storage/ubicaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\yavirac-ignug\backend-ignug\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08E0BD1-92C9-4288-9438-09644745C5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718EEB02-17C8-41E9-8205-6D9189FFE938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12141,6 +12141,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="166.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -14460,7 +14463,7 @@
         <v>1755</v>
       </c>
       <c r="B258" t="str">
-        <f t="shared" ref="B258:B273" si="4">_xlfn.CONCAT("DB::select(""",A258,""");")</f>
+        <f t="shared" ref="B258:B321" si="4">_xlfn.CONCAT("DB::select(""",A258,""");")</f>
         <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(2,56,'10','IMBABURA');");</v>
       </c>
     </row>
@@ -14604,8 +14607,8 @@
         <v>1771</v>
       </c>
       <c r="B274" t="str">
-        <f>_xlfn.CONCAT("DB::select(""",A1,""");")</f>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'1','AFGANISTÁN','AF','AFG','+93');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0101','CUENCA');");</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -14613,8 +14616,8 @@
         <v>1772</v>
       </c>
       <c r="B275" t="str">
-        <f t="shared" ref="B275:B338" si="5">_xlfn.CONCAT("DB::select(""",A2,""");")</f>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'2','ALBANIA','AL','ALB','+355');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0102','GIRÓN');");</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -14622,8 +14625,8 @@
         <v>1773</v>
       </c>
       <c r="B276" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'3','ALEMANIA','DE','DEU','+49');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0103','GUALACEO');");</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -14631,8 +14634,8 @@
         <v>1774</v>
       </c>
       <c r="B277" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'4','ANDORRA','AD','AND','+376');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0104','NABÓN');");</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -14640,8 +14643,8 @@
         <v>1775</v>
       </c>
       <c r="B278" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'5','ANGOLA','AO','AGO','+244');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0105','PAUTE');");</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -14649,8 +14652,8 @@
         <v>1776</v>
       </c>
       <c r="B279" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'6','ANGUILA','AI','AIA','+1264');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0106','PUCARA');");</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -14658,8 +14661,8 @@
         <v>1777</v>
       </c>
       <c r="B280" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'7','ANTIGUA Y BARBUDA','AG','ATG','+1268');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0107','SAN FERNANDO');");</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -14667,8 +14670,8 @@
         <v>1778</v>
       </c>
       <c r="B281" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'8','ARABIA SAUDITA','SA','SAU','+966');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0108','SANTA ISABEL');");</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -14676,8 +14679,8 @@
         <v>1779</v>
       </c>
       <c r="B282" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'9','ARGELIA','DZ','DZA','+213');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0109','SIGSIG');");</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -14685,8 +14688,8 @@
         <v>1780</v>
       </c>
       <c r="B283" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'10','ARGENTINA','AR','ARG','+54');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0110','OÑA');");</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -14694,8 +14697,8 @@
         <v>1781</v>
       </c>
       <c r="B284" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'11','ARMENIA','AM','ARM','+374');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0111','CHORDELEG');");</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -14703,8 +14706,8 @@
         <v>1782</v>
       </c>
       <c r="B285" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'12','ARUBA','AW','ABW','+297');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0112','EL PAN');");</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -14712,8 +14715,8 @@
         <v>1783</v>
       </c>
       <c r="B286" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'13','AUSTRALIA','AU','AUS','+61');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0113','SEVILLA DE ORO');");</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -14721,8 +14724,8 @@
         <v>1784</v>
       </c>
       <c r="B287" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'14','AUSTRIA','AT','AUT','+43');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0114','GUACHAPALA');");</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -14730,8 +14733,8 @@
         <v>1785</v>
       </c>
       <c r="B288" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'15','AZERBAIYÁN','AZ','AZE','+994');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,249,'0115','CAMILO PONCE ENRÍQUEZ');");</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -14739,8 +14742,8 @@
         <v>1786</v>
       </c>
       <c r="B289" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'16','BAHAMAS','BS','BHS','+1242');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,250,'0201','GUARANDA');");</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -14748,8 +14751,8 @@
         <v>1787</v>
       </c>
       <c r="B290" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'17','BAHREIN','BH','BHR','+973');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,250,'0202','CHILLANES');");</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -14757,8 +14760,8 @@
         <v>1788</v>
       </c>
       <c r="B291" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'18','BANGLADESH','BD','BGD','+880');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,250,'0203','CHIMBO');");</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -14766,8 +14769,8 @@
         <v>1789</v>
       </c>
       <c r="B292" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'19','BARBADOS','BB','BRB','+1246');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,250,'0204','ECHEANDÍA');");</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -14775,8 +14778,8 @@
         <v>1790</v>
       </c>
       <c r="B293" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'20','BÉLGICA','BB','BRB','+1246');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,250,'0205','SAN MIGUEL');");</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -14784,8 +14787,8 @@
         <v>1791</v>
       </c>
       <c r="B294" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'21','BELICE','BZ','BLZ','+501');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,250,'0206','CALUMA');");</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -14793,8 +14796,8 @@
         <v>1792</v>
       </c>
       <c r="B295" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'22','BENIN','BJ','BEN','+229');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,250,'0207','LAS NAVES');");</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -14802,8 +14805,8 @@
         <v>1793</v>
       </c>
       <c r="B296" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'23','BERMUDAS','BJ','BEN','+229');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,251,'0301','AZOGUES');");</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -14811,8 +14814,8 @@
         <v>1794</v>
       </c>
       <c r="B297" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'24','BIELORRUSIA','BY','BLR','+375');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,251,'0302','BIBLIÁN');");</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -14820,8 +14823,8 @@
         <v>1795</v>
       </c>
       <c r="B298" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'25','BOLIVIA','BO','BOL','+591');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,251,'0303','CAÑAR');");</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -14829,8 +14832,8 @@
         <v>1796</v>
       </c>
       <c r="B299" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'26','BONAIRE, SAN EUSTAQUIO Y SABA','BO','BOL','+591');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,251,'0304','LA TRONCAL');");</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -14838,8 +14841,8 @@
         <v>1797</v>
       </c>
       <c r="B300" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'27','BOSNIA Y HERZEGOVINA','BA','BIH','+387');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,251,'0305','EL TAMBO');");</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -14847,8 +14850,8 @@
         <v>1798</v>
       </c>
       <c r="B301" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'28','BOTSWANA','BW','BWA','+267');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,251,'0306','DÉLEG');");</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -14856,8 +14859,8 @@
         <v>1799</v>
       </c>
       <c r="B302" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'29','BRASIL','BR','BRA','+55');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,251,'0307','SUSCAL');");</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -14865,8 +14868,8 @@
         <v>1800</v>
       </c>
       <c r="B303" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'30','BRUNEI DARUSSALAM','BN','BRN','+673');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,252,'0401','TULCÁN');");</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -14874,8 +14877,8 @@
         <v>1801</v>
       </c>
       <c r="B304" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'31','BULGARIA','BG','BGR','+359');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,252,'0402','BOLÍVAR');");</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -14883,8 +14886,8 @@
         <v>1802</v>
       </c>
       <c r="B305" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'32','BURKINA FASO','BF','BFA','+226');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,252,'0403','ESPEJO');");</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -14892,8 +14895,8 @@
         <v>1803</v>
       </c>
       <c r="B306" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'33','BURUNDI','BI','BDI','+257');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,252,'0404','MIRA');");</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -14901,8 +14904,8 @@
         <v>1804</v>
       </c>
       <c r="B307" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'34','BUTÁN','BI','BDI','+257');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,252,'0405','MONTÚFAR');");</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -14910,8 +14913,8 @@
         <v>1805</v>
       </c>
       <c r="B308" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'35','CABO VERDE','CV','CPV','+238');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,252,'0406','SAN PEDRO DE HUACA');");</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -14919,8 +14922,8 @@
         <v>1806</v>
       </c>
       <c r="B309" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'36','CAMBOYA','KH','KHM','+855');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,253,'0501','LATACUNGA');");</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -14928,8 +14931,8 @@
         <v>1807</v>
       </c>
       <c r="B310" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'37','CAMERÚN','CM','CMR','+237');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,253,'0502','LA MANÁ');");</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -14937,8 +14940,8 @@
         <v>1808</v>
       </c>
       <c r="B311" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'38','CANADA','CA','CAN','+1');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,253,'0503','PANGUA');");</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -14946,8 +14949,8 @@
         <v>1809</v>
       </c>
       <c r="B312" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'39','CHAD','TD','TCD','+235');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,253,'0504','PUJILI');");</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -14955,8 +14958,8 @@
         <v>1810</v>
       </c>
       <c r="B313" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'40','CHILE','CL','CHL','+56');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,253,'0505','SALCEDO');");</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -14964,8 +14967,8 @@
         <v>1811</v>
       </c>
       <c r="B314" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'41','CHINA','CN','CHN','+86');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,253,'0506','SAQUISILÍ');");</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -14973,8 +14976,8 @@
         <v>1812</v>
       </c>
       <c r="B315" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'42','CHIPRE','CY','CYP','+357');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,253,'0507','SIGCHOS');");</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -14982,8 +14985,8 @@
         <v>1813</v>
       </c>
       <c r="B316" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'43','COLOMBIA','CO','COL','+57');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0601','RIOBAMBA');");</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -14991,8 +14994,8 @@
         <v>1814</v>
       </c>
       <c r="B317" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'44','COMORAS','KM','COM','+269');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0602','ALAUSI');");</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -15000,8 +15003,8 @@
         <v>1815</v>
       </c>
       <c r="B318" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'45','CONGO','KM','COM','+269');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0603','COLTA');");</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -15009,8 +15012,8 @@
         <v>1816</v>
       </c>
       <c r="B319" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'46','COREA DEL NORTE','KP','PRK','+850');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0604','CHAMBO');");</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -15018,8 +15021,8 @@
         <v>1817</v>
       </c>
       <c r="B320" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'47','COREA DEL SUR','KR','KOR','+82');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0605','CHUNCHI');");</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -15027,8 +15030,8 @@
         <v>1818</v>
       </c>
       <c r="B321" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'48','COSTA DE MARﬁL','CI','CIV','+225');");</v>
+        <f t="shared" si="4"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0606','GUAMOTE');");</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -15036,8 +15039,8 @@
         <v>1819</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'49','COSTA RICA','CR','CRI','+506');");</v>
+        <f t="shared" ref="B322:B385" si="5">_xlfn.CONCAT("DB::select(""",A322,""");")</f>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0607','GUANO');");</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -15046,7 +15049,7 @@
       </c>
       <c r="B323" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'50','CROACIA','HR','HRV','+385');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0608','PALLATANGA');");</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -15055,7 +15058,7 @@
       </c>
       <c r="B324" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'51','CUBA','CU','CUB','+53');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0609','PENIPE');");</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -15064,7 +15067,7 @@
       </c>
       <c r="B325" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'52','CURAÇAO','CU','CUB','+53');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,254,'0610','CUMANDÁ');");</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -15073,7 +15076,7 @@
       </c>
       <c r="B326" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'53','DINAMARCA','DK','DNK','+45');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0701','MACHALA');");</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -15082,7 +15085,7 @@
       </c>
       <c r="B327" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'54','DJIBOUTI','DK','DNK','+45');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0702','ARENILLAS');");</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -15091,7 +15094,7 @@
       </c>
       <c r="B328" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'55','DOMINICA','DM','DMA','+1767');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0703','ATAHUALPA');");</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -15100,7 +15103,7 @@
       </c>
       <c r="B329" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'56','ECUADOR','EC','ECU','+593');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0704','BALSAS');");</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -15109,7 +15112,7 @@
       </c>
       <c r="B330" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'57','EGIPTO','EG','EGY','+20');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0705','CHILLA');");</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -15118,7 +15121,7 @@
       </c>
       <c r="B331" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'58','EL SALVADOR','SV','SLV','+503');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0706','EL GUABO');");</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -15127,7 +15130,7 @@
       </c>
       <c r="B332" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'59','EL VATICANO','SV','SLV','+503');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0707','HUAQUILLAS');");</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -15136,7 +15139,7 @@
       </c>
       <c r="B333" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'60','EMIRATOS ÁRABES UNIDOS','AE','ARE','+971');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0708','MARCABELÍ');");</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -15145,7 +15148,7 @@
       </c>
       <c r="B334" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'61','ERITREA','ER','ERI','+291');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0709','PASAJE');");</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -15154,7 +15157,7 @@
       </c>
       <c r="B335" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'62','ESLOVAQUIA','SK','SVK','+421');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0710','PIÑAS');");</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -15163,7 +15166,7 @@
       </c>
       <c r="B336" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'63','ESLOVENIA','SI','SVN','+386');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0711','PORTOVELO');");</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -15172,7 +15175,7 @@
       </c>
       <c r="B337" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'64','ESPAÑA','ES','ESP','+34');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0712','SANTA ROSA');");</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -15181,7 +15184,7 @@
       </c>
       <c r="B338" t="str">
         <f t="shared" si="5"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'65','ESTADO DE PALESTINA','SN','SN','SN');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0713','ZARUMA');");</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -15189,8 +15192,8 @@
         <v>1836</v>
       </c>
       <c r="B339" t="str">
-        <f t="shared" ref="B339:B402" si="6">_xlfn.CONCAT("DB::select(""",A66,""");")</f>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'66','ESTADOS UNIDOS DE AMÉRICA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,255,'0714','LAS LAJAS');");</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -15198,8 +15201,8 @@
         <v>1837</v>
       </c>
       <c r="B340" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'67','ESTONIA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,256,'0801','ESMERALDAS');");</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -15207,8 +15210,8 @@
         <v>1838</v>
       </c>
       <c r="B341" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'68','ETIOPÍA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,256,'0802','ELOY ALFARO');");</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -15216,8 +15219,8 @@
         <v>1839</v>
       </c>
       <c r="B342" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'69','FIYI','FJ','FJI','+679');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,256,'0803','MUISNE');");</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -15225,8 +15228,8 @@
         <v>1840</v>
       </c>
       <c r="B343" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'70','FILIPINAS','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,256,'0804','QUININDÉ');");</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -15234,8 +15237,8 @@
         <v>1841</v>
       </c>
       <c r="B344" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'71','FINLANDIA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,256,'0805','SAN LORENZO');");</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -15243,8 +15246,8 @@
         <v>1842</v>
       </c>
       <c r="B345" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'72','FRANCIA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,256,'0806','ATACAMES');");</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -15252,8 +15255,8 @@
         <v>1843</v>
       </c>
       <c r="B346" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'73','GABÓN','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,256,'0807','RIOVERDE');");</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -15261,8 +15264,8 @@
         <v>1844</v>
       </c>
       <c r="B347" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'74','GAMBIA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,256,'0808','LA CONCORDIA');");</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -15270,8 +15273,8 @@
         <v>1845</v>
       </c>
       <c r="B348" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'75','GEORGIA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0901','GUAYAQUIL');");</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -15279,8 +15282,8 @@
         <v>1846</v>
       </c>
       <c r="B349" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'76','GHANA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0902','EDO BAQUERIZO MORENO (JU');");</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -15288,8 +15291,8 @@
         <v>1847</v>
       </c>
       <c r="B350" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'77','GIBRALTAR','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0903','BALAO');");</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -15297,8 +15300,8 @@
         <v>1848</v>
       </c>
       <c r="B351" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'78','GRANADA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0904','BALZAR');");</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -15306,8 +15309,8 @@
         <v>1849</v>
       </c>
       <c r="B352" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'79','GRECIA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0905','COLIMES');");</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -15315,8 +15318,8 @@
         <v>1850</v>
       </c>
       <c r="B353" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'80','GROENLANDIA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0906','DAULE');");</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -15324,8 +15327,8 @@
         <v>1851</v>
       </c>
       <c r="B354" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'81','GUADALUPE','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0907','DURÁN');");</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -15333,8 +15336,8 @@
         <v>1852</v>
       </c>
       <c r="B355" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'82','GUAM','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0908','EL EMPALME');");</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -15342,8 +15345,8 @@
         <v>1853</v>
       </c>
       <c r="B356" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'83','GUATEMALA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0909','EL TRIUNFO');");</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -15351,8 +15354,8 @@
         <v>1854</v>
       </c>
       <c r="B357" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'84','GUAYANA FRANCESA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0910','MILAGRO');");</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -15360,8 +15363,8 @@
         <v>1855</v>
       </c>
       <c r="B358" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'85','GUERNSEY','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0911','NARANJAL');");</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -15369,8 +15372,8 @@
         <v>1856</v>
       </c>
       <c r="B359" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'86','GUINEA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0912','NARANJITO');");</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -15378,8 +15381,8 @@
         <v>1857</v>
       </c>
       <c r="B360" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'87','GUINEA ECUATORIAL','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0913','PALESTINA');");</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -15387,8 +15390,8 @@
         <v>1858</v>
       </c>
       <c r="B361" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'88','GUINEA-BISSAU','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0914','PEDRO CARBO');");</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -15396,8 +15399,8 @@
         <v>1859</v>
       </c>
       <c r="B362" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'89','GUYANA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0915','SAMBORONDÓN');");</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
@@ -15405,8 +15408,8 @@
         <v>1860</v>
       </c>
       <c r="B363" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'90','HAITÍ','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0916','SANTA LUCÍA');");</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -15414,8 +15417,8 @@
         <v>1861</v>
       </c>
       <c r="B364" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'91','HONDURAS','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0917','SALITRE (URBINA JADO)');");</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -15423,8 +15426,8 @@
         <v>1862</v>
       </c>
       <c r="B365" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'92','HONG KONG','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0918','SAN JACINTO DE YAGUACHI');");</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
@@ -15432,8 +15435,8 @@
         <v>1863</v>
       </c>
       <c r="B366" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'93','HUNGRÍA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0919','PLAYAS');");</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -15441,8 +15444,8 @@
         <v>1864</v>
       </c>
       <c r="B367" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'94','INDIA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0920','SIMÓN BOLÍVAR');");</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -15450,8 +15453,8 @@
         <v>1865</v>
       </c>
       <c r="B368" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'95','INDONESIA','SN','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0921','RONEL MARCELINO MARIDUE');");</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -15459,8 +15462,8 @@
         <v>1866</v>
       </c>
       <c r="B369" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'96','IRAK','IQ','IRQ','+964');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0922','LOMAS DE SARGENTILLO');");</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -15468,8 +15471,8 @@
         <v>1867</v>
       </c>
       <c r="B370" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'97','IRÁN','IM','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0923','NOBOL');");</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -15477,8 +15480,8 @@
         <v>1868</v>
       </c>
       <c r="B371" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'98','IRLANDA','NF','SN','SN');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0924','GENERAL ANTONIO ELIZALDE');");</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -15486,8 +15489,8 @@
         <v>1869</v>
       </c>
       <c r="B372" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'99','ISLA DE MAN','IS','IMN','+44');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,257,'0925','ISIDRO AYORA');");</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -15495,8 +15498,8 @@
         <v>1870</v>
       </c>
       <c r="B373" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'100','ISLA NORFOLK','IS','NFK','+672');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,258,'1001','IBARRA');");</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -15504,8 +15507,8 @@
         <v>1871</v>
       </c>
       <c r="B374" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'101','ISLANDIA','KY','ISL','+354');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,258,'1002','ANTONIO ANTE');");</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -15513,8 +15516,8 @@
         <v>1872</v>
       </c>
       <c r="B375" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'102','ISLAS ÅLAND','CK','ISL','+354');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,258,'1003','COTACACHI');");</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -15522,8 +15525,8 @@
         <v>1873</v>
       </c>
       <c r="B376" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'103','ISLAS CAIMÁN','FO','CYM','+1345');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,258,'1004','OTAVALO');");</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -15531,8 +15534,8 @@
         <v>1874</v>
       </c>
       <c r="B377" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'104','ISLAS COOK','FK','COK','+682');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,258,'1005','PIMAMPIRO');");</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -15540,8 +15543,8 @@
         <v>1875</v>
       </c>
       <c r="B378" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'105','ISLAS FEROE','MP','FRO','+298');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,258,'1006','SAN MIGUEL DE URCUQUÍ');");</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -15549,8 +15552,8 @@
         <v>1876</v>
       </c>
       <c r="B379" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'106','ISLAS MALVINAS (FALKLAND)','MH','FLK','+500');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1107','LOJA');");</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -15558,8 +15561,8 @@
         <v>1877</v>
       </c>
       <c r="B380" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'107','ISLAS MARIANAS DEL NORTE','SB','MNP','+1670');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1108','CALVAS');");</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
@@ -15567,8 +15570,8 @@
         <v>1878</v>
       </c>
       <c r="B381" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'108','ISLAS MARSHALL','TC','MHL','+692');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1109','CATAMAYO');");</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
@@ -15576,8 +15579,8 @@
         <v>1879</v>
       </c>
       <c r="B382" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'109','ISLAS SALOMÓN','UM','SLB','+677');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1110','CELICA');");</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -15585,8 +15588,8 @@
         <v>1880</v>
       </c>
       <c r="B383" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'110','ISLAS TURCAS Y CAICOS','VG','TCA','+1649');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1111','CHAGUARPAMBA');");</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -15594,8 +15597,8 @@
         <v>1881</v>
       </c>
       <c r="B384" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'111','ISLAS VÍRGENES AMERICANAS','VI','UMI','+246');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1112','ESPÍNDOLA');");</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -15603,8 +15606,8 @@
         <v>1882</v>
       </c>
       <c r="B385" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'112','ISLAS VÍRGENES BRITÁNICAS','PS','VGB','+1284');");</v>
+        <f t="shared" si="5"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1113','GONZANAMÁ');");</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -15612,8 +15615,8 @@
         <v>1883</v>
       </c>
       <c r="B386" t="str">
-        <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'113','ISLAS WALLIS Y FUTUNA','IT','VIR','+1340');");</v>
+        <f t="shared" ref="B386:B449" si="6">_xlfn.CONCAT("DB::select(""",A386,""");")</f>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1114','MACARÁ');");</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -15622,7 +15625,7 @@
       </c>
       <c r="B387" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'114','ISRAEL','JM','PSE','+970');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1115','PALTAS');");</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -15631,7 +15634,7 @@
       </c>
       <c r="B388" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'115','ITALIA','JP','ITA','+39');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1116','PUYANGO');");</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -15640,7 +15643,7 @@
       </c>
       <c r="B389" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'116','JAMAICA','JE','JAM','+1876');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1117','SARAGURO');");</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -15649,7 +15652,7 @@
       </c>
       <c r="B390" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'117','JAPÓN','JO','JPN','+81');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1118','SOZORANGA');");</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -15658,7 +15661,7 @@
       </c>
       <c r="B391" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'118','JERSEY','KZ','JEY','+44');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1119','ZAPOTILLO');");</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -15667,7 +15670,7 @@
       </c>
       <c r="B392" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'119','JORDANIA','KE','JOR','+962');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1120','PINDAL');");</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -15676,7 +15679,7 @@
       </c>
       <c r="B393" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'120','KAZAJSTÁN','KG','KAZ','+7');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1121','QUILANGA');");</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -15685,7 +15688,7 @@
       </c>
       <c r="B394" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'121','KENYA','KI','KEN','+254');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,259,'1122','OLMEDO');");</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -15694,7 +15697,7 @@
       </c>
       <c r="B395" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'122','KIRGUISTÁN','KW','KGZ','+996');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1201','BABAHOYO');");</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -15703,7 +15706,7 @@
       </c>
       <c r="B396" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'123','KIRIBATI','KW','KIR','+686');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1202','BABA');");</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -15712,7 +15715,7 @@
       </c>
       <c r="B397" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'124','KUWAIT','KW','KWT','+965');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1203','MONTALVO');");</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -15721,7 +15724,7 @@
       </c>
       <c r="B398" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'125','LA EX REPÚBLICA YUGOSLAVA DE MACEDONIA','LV','KWT','+965');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1204','PUEBLOVIEJO');");</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -15730,7 +15733,7 @@
       </c>
       <c r="B399" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'126','LESOTO','LV','KWT','+965');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1205','QUEVEDO');");</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -15739,7 +15742,7 @@
       </c>
       <c r="B400" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'127','LETONIA','LR','LVA','+371');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1206','URDANETA');");</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -15748,7 +15751,7 @@
       </c>
       <c r="B401" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'128','LÍBANO','LY','LVA','+371');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1207','VENTANAS');");</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
@@ -15757,7 +15760,7 @@
       </c>
       <c r="B402" t="str">
         <f t="shared" si="6"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'129','LIBERIA','LI','LBR','+231');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1208','VÍNCES');");</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -15765,8 +15768,8 @@
         <v>1900</v>
       </c>
       <c r="B403" t="str">
-        <f t="shared" ref="B403:B466" si="7">_xlfn.CONCAT("DB::select(""",A130,""");")</f>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'130','LIBIA','LT','LBY','+218');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1209','PALENQUE');");</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -15774,8 +15777,8 @@
         <v>1901</v>
       </c>
       <c r="B404" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'131','LIECHTENSTEIN','LU','LIE','+423');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1210','BUENA FÉ');");</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -15783,8 +15786,8 @@
         <v>1902</v>
       </c>
       <c r="B405" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'132','LITUANIA','LU','LTU','+370');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1211','VALENCIA');");</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -15792,8 +15795,8 @@
         <v>1903</v>
       </c>
       <c r="B406" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'133','LUXEMBURGO','LU','LUX','+352');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1212','MOCACHE');");</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -15801,8 +15804,8 @@
         <v>1904</v>
       </c>
       <c r="B407" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'134','MACAO','LU','LUX','+352');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,260,'1213','QUINSALOMA');");</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -15810,8 +15813,8 @@
         <v>1905</v>
       </c>
       <c r="B408" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'135','MADAGASCAR','MY','LUX','+352');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1301','PORTOVIEJO');");</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -15819,8 +15822,8 @@
         <v>1906</v>
       </c>
       <c r="B409" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'136','MALASIA','MW','LUX','+352');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1302','BOLÍVAR');");</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
@@ -15828,8 +15831,8 @@
         <v>1907</v>
       </c>
       <c r="B410" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'137','MALAUI','ML','MYS','+60');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1303','CHONE');");</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -15837,8 +15840,8 @@
         <v>1908</v>
       </c>
       <c r="B411" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'138','MALDIVAS','MT','MWI','+265');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1304','EL CARMEN');");</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -15846,8 +15849,8 @@
         <v>1909</v>
       </c>
       <c r="B412" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'139','MALÍ','MA','MLI','+223');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1305','FLAVIO ALFARO');");</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -15855,8 +15858,8 @@
         <v>1910</v>
       </c>
       <c r="B413" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'140','MALTA','MQ','MLT','+356');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1306','JIPIJAPA');");</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -15864,8 +15867,8 @@
         <v>1911</v>
       </c>
       <c r="B414" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'141','MARRUECOS','MU','MAR','+212');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1307','JUNÍN');");</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -15873,8 +15876,8 @@
         <v>1912</v>
       </c>
       <c r="B415" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'142','MARTINICA','MR','MTQ','+596');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1308','MANTA');");</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
@@ -15882,8 +15885,8 @@
         <v>1913</v>
       </c>
       <c r="B416" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'143','MAURICIO','PS','MUS','+230');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1309','MONTECRISTI');");</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
@@ -15891,8 +15894,8 @@
         <v>1914</v>
       </c>
       <c r="B417" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'144','MAURITANIA','YT','MRT','+222');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1310','PAJÁN');");</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -15900,8 +15903,8 @@
         <v>1915</v>
       </c>
       <c r="B418" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'145','MAYOTTE','FM','PSE','+970');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1311','PICHINCHA');");</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -15909,8 +15912,8 @@
         <v>1916</v>
       </c>
       <c r="B419" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'146','MÉXICO','MD','MYT','+262');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1312','ROCAFUERTE');");</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -15918,8 +15921,8 @@
         <v>1917</v>
       </c>
       <c r="B420" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'147','MICRONESIA','MN','FSM','+691');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1313','SANTA ANA');");</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -15927,8 +15930,8 @@
         <v>1918</v>
       </c>
       <c r="B421" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'148','MÓNACO','ME','MDA','+373');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1314','SUCRE');");</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -15936,8 +15939,8 @@
         <v>1919</v>
       </c>
       <c r="B422" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'149','MONGOLIA','MS','MNG','+976');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1315','TOSAGUA');");</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
@@ -15945,8 +15948,8 @@
         <v>1920</v>
       </c>
       <c r="B423" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'150','MONTENEGRO','MZ','MNE','+382');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1316','24 DE MAYO');");</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -15954,8 +15957,8 @@
         <v>1921</v>
       </c>
       <c r="B424" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'151','MONTSERRAT','MZ','MSR','+1664');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1317','PEDERNALES');");</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
@@ -15963,8 +15966,8 @@
         <v>1922</v>
       </c>
       <c r="B425" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'152','MOZAMBIQUE','NA','MOZ','+258');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1318','OLMEDO');");</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -15972,8 +15975,8 @@
         <v>1923</v>
       </c>
       <c r="B426" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'153','MYANMAR','NR','MOZ','+258');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1319','PUERTO LÓPEZ');");</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -15981,8 +15984,8 @@
         <v>1924</v>
       </c>
       <c r="B427" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'154','NAMIBIA','NP','NAM','+264');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1320','JAMA');");</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -15990,8 +15993,8 @@
         <v>1925</v>
       </c>
       <c r="B428" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'155','NAURU','NI','NRU','+674');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1321','JARAMIJÓ');");</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -15999,8 +16002,8 @@
         <v>1926</v>
       </c>
       <c r="B429" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'156','NEPAL','NE','NPL','+977');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,261,'1322','SAN VICENTE');");</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -16008,8 +16011,8 @@
         <v>1927</v>
       </c>
       <c r="B430" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'157','NICARAGUA','NG','NIC','+505');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1401','MORONA');");</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -16017,8 +16020,8 @@
         <v>1928</v>
       </c>
       <c r="B431" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'158','NÍGER','NU','NER','+227');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1402','GUALAQUIZA');");</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -16026,8 +16029,8 @@
         <v>1929</v>
       </c>
       <c r="B432" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'159','NIGERIA','PS','NGA','+234');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1403','LIMÓN INDANZA');");</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -16035,8 +16038,8 @@
         <v>1930</v>
       </c>
       <c r="B433" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'160','NIUE','NC','NIU','+683');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1404','PALORA');");</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -16044,8 +16047,8 @@
         <v>1931</v>
       </c>
       <c r="B434" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'161','NORUEGA','NZ','PSE','+970');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1405','SANTIAGO');");</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -16053,8 +16056,8 @@
         <v>1932</v>
       </c>
       <c r="B435" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'162','NUEVA CALEDONIA','OM','NCL','+687');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1406','SUCÚA');");</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -16062,8 +16065,8 @@
         <v>1933</v>
       </c>
       <c r="B436" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'163','NUEVA ZELANDA','PS','NZL','+64');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1407','HUAMBOYA');");</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
@@ -16071,8 +16074,8 @@
         <v>1934</v>
       </c>
       <c r="B437" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'164','OMÁN','PK','OMN','+968');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1408','SAN JUAN BOSCO');");</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
@@ -16080,8 +16083,8 @@
         <v>1935</v>
       </c>
       <c r="B438" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'165','PAÍSES BAJOS','PS','PSE','+970');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1409','TAISHA');");</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -16089,8 +16092,8 @@
         <v>1936</v>
       </c>
       <c r="B439" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'166','PAKISTÁN','PA','PAK','+92');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1410','LOGROÑO');");</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -16098,8 +16101,8 @@
         <v>1937</v>
       </c>
       <c r="B440" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'167','PALAU','PG','PSE','+970');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1411','PABLO SEXTO');");</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -16107,8 +16110,8 @@
         <v>1938</v>
       </c>
       <c r="B441" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'168','PANAMÁ','PY','PAN','+507');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,262,'1412','TIWINTZA');");</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -16116,8 +16119,8 @@
         <v>1939</v>
       </c>
       <c r="B442" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'169','PAPÚA NUEVA GUINEA','PE','PNG','+675');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,263,'1501','TENA');");</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -16125,8 +16128,8 @@
         <v>1940</v>
       </c>
       <c r="B443" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'170','PARAGUAY','PE','PRY','+595');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,263,'1502','ARCHIDONA');");</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -16134,8 +16137,8 @@
         <v>1941</v>
       </c>
       <c r="B444" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'171','PERÚ','PE','PER','+51');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,263,'1503','EL CHACO');");</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -16143,8 +16146,8 @@
         <v>1942</v>
       </c>
       <c r="B445" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'172','PITCAIRN','PL','PER','+51');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,263,'1504','QUIJOS');");</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -16152,8 +16155,8 @@
         <v>1943</v>
       </c>
       <c r="B446" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'173','POLINESIA FRANCÉS','PT','PER','+51');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,263,'1505','ARLOS JULIO AROSEMENA TOL');");</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -16161,8 +16164,8 @@
         <v>1944</v>
       </c>
       <c r="B447" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'174','POLONIA','PR','POL','+48');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,264,'1601','PASTAZA');");</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -16170,8 +16173,8 @@
         <v>1945</v>
       </c>
       <c r="B448" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'175','PORTUGAL','QA','PRT','+351');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,264,'1602','MERA');");</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -16179,8 +16182,8 @@
         <v>1946</v>
       </c>
       <c r="B449" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'176','PUERTO RICO','GB','PRI','+1');");</v>
+        <f t="shared" si="6"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,264,'1603','SANTA CLARA');");</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -16188,8 +16191,8 @@
         <v>1947</v>
       </c>
       <c r="B450" t="str">
-        <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'177','QATAR','GB','QAT','+974');");</v>
+        <f t="shared" ref="B450:B497" si="7">_xlfn.CONCAT("DB::select(""",A450,""");")</f>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,264,'1604','ARAJUNO');");</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -16198,7 +16201,7 @@
       </c>
       <c r="B451" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'178','REINO UNIDO DE GRAN BRETAÑA E IRLANDA DEL NORTE','CF','GBR','+44');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,265,'1701','QUITO');");</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -16207,7 +16210,7 @@
       </c>
       <c r="B452" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'179','REPÚBLICA ÁRABE SIRIA','CZ','GBR','+44');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,265,'1702','CAYAMBE');");</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -16216,7 +16219,7 @@
       </c>
       <c r="B453" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'180','REPÚBLICA CENTROAFRICANA','CZ','CAF','+236');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,265,'1703','MEJIA');");</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -16225,7 +16228,7 @@
       </c>
       <c r="B454" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'181','REPÚBLICA CHECA','SS','CZE','+420');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,265,'1704','PEDRO MONCAYO');");</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -16234,7 +16237,7 @@
       </c>
       <c r="B455" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'182','REPÚBLICA DE MOLDAVIA','CZ','CZE','+420');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,265,'1705','RUMIÑAHUI');");</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -16243,7 +16246,7 @@
       </c>
       <c r="B456" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'183','REPÚBLICA DEMOCRÁTICA DEL CONGO','SS','SSD','+211');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,265,'1706','SAN MIGUEL DE LOS BANCOS');");</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -16252,7 +16255,7 @@
       </c>
       <c r="B457" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'184','REPÚBLICA DEMOCRÁTICA POPULAR LAO','SS','CZE','+420');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,265,'1707','PEDRO VICENTE MALDONADO');");</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -16261,7 +16264,7 @@
       </c>
       <c r="B458" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'185','REPÚBLICA DOMINICANA','RE','SSD','+211');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,265,'1708','PUERTO QUITO');");</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -16270,7 +16273,7 @@
       </c>
       <c r="B459" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'186','REPÚBLICA UNIDA DE TANZANIA','RO','SSD','+211');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,266,'1801','AMBATO');");</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -16279,7 +16282,7 @@
       </c>
       <c r="B460" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'187','RÉUNION','RU','REU','+262');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,266,'1802','BAÑOS DE AGUA SANTA');");</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -16288,7 +16291,7 @@
       </c>
       <c r="B461" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'188','RUMANIA','RU','ROU','+40');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,266,'1803','CEVALLOS');");</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -16297,7 +16300,7 @@
       </c>
       <c r="B462" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'189','RUSIA','EH','RUS','+7');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,266,'1804','MOCHA');");</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -16306,7 +16309,7 @@
       </c>
       <c r="B463" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'190','RWANDA','EH','RUS','+7');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,266,'1805','PATATE');");</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -16315,7 +16318,7 @@
       </c>
       <c r="B464" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'191','SÁHARA OCCIDENTAL','EH','ESH','+212');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,266,'1806','QUERO');");</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
@@ -16324,7 +16327,7 @@
       </c>
       <c r="B465" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'192','SAINT-BARTHÉLEMY','WS','ESH','+212');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,266,'1807','SAN PEDRO DE PELILEO');");</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -16333,7 +16336,7 @@
       </c>
       <c r="B466" t="str">
         <f t="shared" si="7"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'193','SAINT-MARTIN','AS','ESH','+212');");</v>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,266,'1808','SANTIAGO DE PÍLLARO');");</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -16341,8 +16344,8 @@
         <v>1964</v>
       </c>
       <c r="B467" t="str">
-        <f t="shared" ref="B467:B497" si="8">_xlfn.CONCAT("DB::select(""",A194,""");")</f>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'194','SAMOA','KN','WSM','+685');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,266,'1809','TISALEO');");</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -16350,8 +16353,8 @@
         <v>1965</v>
       </c>
       <c r="B468" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'195','SAMOA AMERICANA','SM','ASM','+1684');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,267,'1901','ZAMORA');");</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -16359,8 +16362,8 @@
         <v>1966</v>
       </c>
       <c r="B469" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'196','SAN CRISTÓBAL Y NIEVES','PM','KNA','+1869');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,267,'1902','CHINCHIPE');");</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -16368,8 +16371,8 @@
         <v>1967</v>
       </c>
       <c r="B470" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'197','SAN MARINO','VC','SMR','+378');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,267,'1903','NANGARITZA');");</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -16377,8 +16380,8 @@
         <v>1968</v>
       </c>
       <c r="B471" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'198','SAN PEDRO Y MIQUELÓN','SH','SPM','+508');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,267,'1904','YACUAMBI');");</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -16386,8 +16389,8 @@
         <v>1969</v>
       </c>
       <c r="B472" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'199','SAN VICENTE Y LAS GRANADINAS','LC','VCT','+1784');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,267,'1905','YANTZAZA (YANZATZA)');");</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -16395,8 +16398,8 @@
         <v>1970</v>
       </c>
       <c r="B473" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'200','SANTA ELENA','ST','SHN','+290');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,267,'1906','EL PANGUI');");</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -16404,8 +16407,8 @@
         <v>1971</v>
       </c>
       <c r="B474" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'201','SANTA LUCÍA','SN','LCA','+1758');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,267,'1907','CENTINELA DEL CÓNDOR');");</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -16413,8 +16416,8 @@
         <v>1972</v>
       </c>
       <c r="B475" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'202','SANTO TOMÉ Y PRÍNCIPE','RS','STP','+239');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,267,'1908','PALANDA');");</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -16422,8 +16425,8 @@
         <v>1973</v>
       </c>
       <c r="B476" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'203','SENEGAL','SC','SEN','+221');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,267,'1909','PAQUISHA');");</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -16431,8 +16434,8 @@
         <v>1974</v>
       </c>
       <c r="B477" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'204','SERBIA','SL','SRB','+381');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,268,'2001','SAN CRISTÓBAL');");</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -16440,8 +16443,8 @@
         <v>1975</v>
       </c>
       <c r="B478" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'205','SEYCHELLES','SG','SYC','+248');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,268,'2002','ISABELA');");</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
@@ -16449,8 +16452,8 @@
         <v>1976</v>
       </c>
       <c r="B479" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'206','SIERRA LEONA','SX','SLE','+232');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,268,'2003','SANTA CRUZ');");</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -16458,8 +16461,8 @@
         <v>1977</v>
       </c>
       <c r="B480" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'207','SINGAPUR','SO','SGP','+65');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,269,'2101','LAGO AGRIO');");</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -16467,8 +16470,8 @@
         <v>1978</v>
       </c>
       <c r="B481" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'208','SINT MAARTEN','LK','SMX','+1721');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,269,'2102','GONZALO PIZARRO');");</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -16476,8 +16479,8 @@
         <v>1979</v>
       </c>
       <c r="B482" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'209','SOMALIA','ZA','SOM','+252');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,269,'2103','PUTUMAYO');");</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -16485,8 +16488,8 @@
         <v>1980</v>
       </c>
       <c r="B483" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'210','SRI LANKA','SD','LKA','+94');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,269,'2104','SHUSHUFINDI');");</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -16494,8 +16497,8 @@
         <v>1981</v>
       </c>
       <c r="B484" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'211','SUDÁFRICA','SD','ZAF','+27');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,269,'2105','SUCUMBÍOS');");</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -16503,8 +16506,8 @@
         <v>1982</v>
       </c>
       <c r="B485" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'212','SUDÁN','SE','SDN','+249');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,269,'2106','CASCALES');");</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
@@ -16512,8 +16515,8 @@
         <v>1983</v>
       </c>
       <c r="B486" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'213','SUDÁN DEL SUR','CH','SDN','+249');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,269,'2107','CUYABENO');");</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -16521,8 +16524,8 @@
         <v>1984</v>
       </c>
       <c r="B487" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'214','SUECIA','SR','SWE','+46');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,270,'2201','ORELLANA');");</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -16530,8 +16533,8 @@
         <v>1985</v>
       </c>
       <c r="B488" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'215','SUIZA','SJ','CHE','+41');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,270,'2202','AGUARICO');");</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -16539,8 +16542,8 @@
         <v>1986</v>
       </c>
       <c r="B489" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'216','SURINAME','SZ','SUR','+597');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,270,'2203','LA JOYA DE LOS SACHAS');");</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -16548,8 +16551,8 @@
         <v>1987</v>
       </c>
       <c r="B490" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'217','SVALBARD Y JAN MAYEN','TH','SJM','+47');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,270,'2204','LORETO');");</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -16557,8 +16560,8 @@
         <v>1988</v>
       </c>
       <c r="B491" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'218','SWAZILANDIA','TJ','SWZ','+268');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,271,'2301','SANTO DOMINGO');");</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -16566,8 +16569,8 @@
         <v>1989</v>
       </c>
       <c r="B492" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'219','TAILANDIA','TL','THA','+66');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,272,'2401','SANTA ELENA');");</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -16575,8 +16578,8 @@
         <v>1990</v>
       </c>
       <c r="B493" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'220','TAYIKISTÁN','TG','TJK','+992');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,272,'2402','LA LIBERTAD');");</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
@@ -16584,8 +16587,8 @@
         <v>1991</v>
       </c>
       <c r="B494" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'221','TIMOR-LESTE','TK','TLS','+670');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,272,'2403','SALINAS');");</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -16593,8 +16596,8 @@
         <v>1992</v>
       </c>
       <c r="B495" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'222','TOGO','TO','TGO','+228');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,273,'9001','LAS GOLONDRINAS');");</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -16602,8 +16605,8 @@
         <v>1993</v>
       </c>
       <c r="B496" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'223','TOKELAU','TT','TKL','+690');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,273,'9002','MANGA DEL CURA');");</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -16611,8 +16614,8 @@
         <v>1994</v>
       </c>
       <c r="B497" t="str">
-        <f t="shared" si="8"/>
-        <v>DB::select("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'224','TONGA','TN','TON','+676');");</v>
+        <f t="shared" si="7"/>
+        <v>DB::select("insert into authentication.locations(type_id,parent_id,code,name) values(3,273,'9003','EL PIEDRERO');");</v>
       </c>
     </row>
   </sheetData>
@@ -16626,7 +16629,7 @@
   <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H249"/>
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16677,7 +16680,7 @@
         <v>1224</v>
       </c>
       <c r="H2" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D2,",'",B2,"','",C2,"',",E2,F2,G2,");")</f>
+        <f t="shared" ref="H2:H65" si="0">_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D2,",'",B2,"','",C2,"',",E2,F2,G2,");")</f>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'1','AFGANISTÁN','AF','AFG','+93');</v>
       </c>
     </row>
@@ -16704,7 +16707,7 @@
         <v>1225</v>
       </c>
       <c r="H3" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D3,",'",B3,"','",C3,"',",E3,F3,G3,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'2','ALBANIA','AL','ALB','+355');</v>
       </c>
     </row>
@@ -16731,7 +16734,7 @@
         <v>1226</v>
       </c>
       <c r="H4" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D4,",'",B4,"','",C4,"',",E4,F4,G4,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'3','ALEMANIA','DE','DEU','+49');</v>
       </c>
     </row>
@@ -16758,7 +16761,7 @@
         <v>1227</v>
       </c>
       <c r="H5" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D5,",'",B5,"','",C5,"',",E5,F5,G5,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'4','ANDORRA','AD','AND','+376');</v>
       </c>
     </row>
@@ -16785,7 +16788,7 @@
         <v>1228</v>
       </c>
       <c r="H6" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D6,",'",B6,"','",C6,"',",E6,F6,G6,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'5','ANGOLA','AO','AGO','+244');</v>
       </c>
     </row>
@@ -16812,7 +16815,7 @@
         <v>1229</v>
       </c>
       <c r="H7" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D7,",'",B7,"','",C7,"',",E7,F7,G7,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'6','ANGUILA','AI','AIA','+1264');</v>
       </c>
     </row>
@@ -16839,7 +16842,7 @@
         <v>1230</v>
       </c>
       <c r="H8" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D8,",'",B8,"','",C8,"',",E8,F8,G8,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'7','ANTIGUA Y BARBUDA','AG','ATG','+1268');</v>
       </c>
     </row>
@@ -16866,7 +16869,7 @@
         <v>1231</v>
       </c>
       <c r="H9" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D9,",'",B9,"','",C9,"',",E9,F9,G9,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'8','ARABIA SAUDITA','SA','SAU','+966');</v>
       </c>
     </row>
@@ -16893,7 +16896,7 @@
         <v>1232</v>
       </c>
       <c r="H10" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D10,",'",B10,"','",C10,"',",E10,F10,G10,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'9','ARGELIA','DZ','DZA','+213');</v>
       </c>
     </row>
@@ -16920,7 +16923,7 @@
         <v>1233</v>
       </c>
       <c r="H11" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D11,",'",B11,"','",C11,"',",E11,F11,G11,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'10','ARGENTINA','AR','ARG','+54');</v>
       </c>
     </row>
@@ -16947,7 +16950,7 @@
         <v>1234</v>
       </c>
       <c r="H12" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D12,",'",B12,"','",C12,"',",E12,F12,G12,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'11','ARMENIA','AM','ARM','+374');</v>
       </c>
     </row>
@@ -16974,7 +16977,7 @@
         <v>1235</v>
       </c>
       <c r="H13" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D13,",'",B13,"','",C13,"',",E13,F13,G13,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'12','ARUBA','AW','ABW','+297');</v>
       </c>
     </row>
@@ -17001,7 +17004,7 @@
         <v>1236</v>
       </c>
       <c r="H14" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D14,",'",B14,"','",C14,"',",E14,F14,G14,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'13','AUSTRALIA','AU','AUS','+61');</v>
       </c>
     </row>
@@ -17028,7 +17031,7 @@
         <v>1237</v>
       </c>
       <c r="H15" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D15,",'",B15,"','",C15,"',",E15,F15,G15,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'14','AUSTRIA','AT','AUT','+43');</v>
       </c>
     </row>
@@ -17055,7 +17058,7 @@
         <v>1238</v>
       </c>
       <c r="H16" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D16,",'",B16,"','",C16,"',",E16,F16,G16,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'15','AZERBAIYÁN','AZ','AZE','+994');</v>
       </c>
     </row>
@@ -17082,7 +17085,7 @@
         <v>1239</v>
       </c>
       <c r="H17" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D17,",'",B17,"','",C17,"',",E17,F17,G17,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'16','BAHAMAS','BS','BHS','+1242');</v>
       </c>
     </row>
@@ -17109,7 +17112,7 @@
         <v>1240</v>
       </c>
       <c r="H18" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D18,",'",B18,"','",C18,"',",E18,F18,G18,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'17','BAHREIN','BH','BHR','+973');</v>
       </c>
     </row>
@@ -17136,7 +17139,7 @@
         <v>1241</v>
       </c>
       <c r="H19" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D19,",'",B19,"','",C19,"',",E19,F19,G19,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'18','BANGLADESH','BD','BGD','+880');</v>
       </c>
     </row>
@@ -17163,7 +17166,7 @@
         <v>1242</v>
       </c>
       <c r="H20" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D20,",'",B20,"','",C20,"',",E20,F20,G20,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'19','BARBADOS','BB','BRB','+1246');</v>
       </c>
     </row>
@@ -17190,7 +17193,7 @@
         <v>1242</v>
       </c>
       <c r="H21" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D21,",'",B21,"','",C21,"',",E21,F21,G21,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'20','BÉLGICA','BB','BRB','+1246');</v>
       </c>
     </row>
@@ -17217,7 +17220,7 @@
         <v>1243</v>
       </c>
       <c r="H22" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D22,",'",B22,"','",C22,"',",E22,F22,G22,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'21','BELICE','BZ','BLZ','+501');</v>
       </c>
     </row>
@@ -17244,7 +17247,7 @@
         <v>1244</v>
       </c>
       <c r="H23" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D23,",'",B23,"','",C23,"',",E23,F23,G23,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'22','BENIN','BJ','BEN','+229');</v>
       </c>
     </row>
@@ -17271,7 +17274,7 @@
         <v>1244</v>
       </c>
       <c r="H24" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D24,",'",B24,"','",C24,"',",E24,F24,G24,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'23','BERMUDAS','BJ','BEN','+229');</v>
       </c>
     </row>
@@ -17298,7 +17301,7 @@
         <v>1245</v>
       </c>
       <c r="H25" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D25,",'",B25,"','",C25,"',",E25,F25,G25,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'24','BIELORRUSIA','BY','BLR','+375');</v>
       </c>
     </row>
@@ -17325,7 +17328,7 @@
         <v>1246</v>
       </c>
       <c r="H26" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D26,",'",B26,"','",C26,"',",E26,F26,G26,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'25','BOLIVIA','BO','BOL','+591');</v>
       </c>
     </row>
@@ -17352,7 +17355,7 @@
         <v>1246</v>
       </c>
       <c r="H27" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D27,",'",B27,"','",C27,"',",E27,F27,G27,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'26','BONAIRE, SAN EUSTAQUIO Y SABA','BO','BOL','+591');</v>
       </c>
     </row>
@@ -17379,7 +17382,7 @@
         <v>1247</v>
       </c>
       <c r="H28" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D28,",'",B28,"','",C28,"',",E28,F28,G28,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'27','BOSNIA Y HERZEGOVINA','BA','BIH','+387');</v>
       </c>
     </row>
@@ -17406,7 +17409,7 @@
         <v>1248</v>
       </c>
       <c r="H29" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D29,",'",B29,"','",C29,"',",E29,F29,G29,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'28','BOTSWANA','BW','BWA','+267');</v>
       </c>
     </row>
@@ -17433,7 +17436,7 @@
         <v>1249</v>
       </c>
       <c r="H30" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D30,",'",B30,"','",C30,"',",E30,F30,G30,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'29','BRASIL','BR','BRA','+55');</v>
       </c>
     </row>
@@ -17460,7 +17463,7 @@
         <v>1250</v>
       </c>
       <c r="H31" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D31,",'",B31,"','",C31,"',",E31,F31,G31,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'30','BRUNEI DARUSSALAM','BN','BRN','+673');</v>
       </c>
     </row>
@@ -17487,7 +17490,7 @@
         <v>1251</v>
       </c>
       <c r="H32" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D32,",'",B32,"','",C32,"',",E32,F32,G32,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'31','BULGARIA','BG','BGR','+359');</v>
       </c>
     </row>
@@ -17514,7 +17517,7 @@
         <v>1252</v>
       </c>
       <c r="H33" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D33,",'",B33,"','",C33,"',",E33,F33,G33,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'32','BURKINA FASO','BF','BFA','+226');</v>
       </c>
     </row>
@@ -17541,7 +17544,7 @@
         <v>1253</v>
       </c>
       <c r="H34" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D34,",'",B34,"','",C34,"',",E34,F34,G34,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'33','BURUNDI','BI','BDI','+257');</v>
       </c>
     </row>
@@ -17568,7 +17571,7 @@
         <v>1253</v>
       </c>
       <c r="H35" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D35,",'",B35,"','",C35,"',",E35,F35,G35,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'34','BUTÁN','BI','BDI','+257');</v>
       </c>
     </row>
@@ -17595,7 +17598,7 @@
         <v>1254</v>
       </c>
       <c r="H36" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D36,",'",B36,"','",C36,"',",E36,F36,G36,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'35','CABO VERDE','CV','CPV','+238');</v>
       </c>
     </row>
@@ -17622,7 +17625,7 @@
         <v>1255</v>
       </c>
       <c r="H37" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D37,",'",B37,"','",C37,"',",E37,F37,G37,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'36','CAMBOYA','KH','KHM','+855');</v>
       </c>
     </row>
@@ -17649,7 +17652,7 @@
         <v>1256</v>
       </c>
       <c r="H38" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D38,",'",B38,"','",C38,"',",E38,F38,G38,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'37','CAMERÚN','CM','CMR','+237');</v>
       </c>
     </row>
@@ -17676,7 +17679,7 @@
         <v>1257</v>
       </c>
       <c r="H39" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D39,",'",B39,"','",C39,"',",E39,F39,G39,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'38','CANADA','CA','CAN','+1');</v>
       </c>
     </row>
@@ -17703,7 +17706,7 @@
         <v>1258</v>
       </c>
       <c r="H40" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D40,",'",B40,"','",C40,"',",E40,F40,G40,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'39','CHAD','TD','TCD','+235');</v>
       </c>
     </row>
@@ -17730,7 +17733,7 @@
         <v>1259</v>
       </c>
       <c r="H41" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D41,",'",B41,"','",C41,"',",E41,F41,G41,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'40','CHILE','CL','CHL','+56');</v>
       </c>
     </row>
@@ -17757,7 +17760,7 @@
         <v>1260</v>
       </c>
       <c r="H42" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D42,",'",B42,"','",C42,"',",E42,F42,G42,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'41','CHINA','CN','CHN','+86');</v>
       </c>
     </row>
@@ -17784,7 +17787,7 @@
         <v>1261</v>
       </c>
       <c r="H43" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D43,",'",B43,"','",C43,"',",E43,F43,G43,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'42','CHIPRE','CY','CYP','+357');</v>
       </c>
     </row>
@@ -17811,7 +17814,7 @@
         <v>1262</v>
       </c>
       <c r="H44" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D44,",'",B44,"','",C44,"',",E44,F44,G44,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'43','COLOMBIA','CO','COL','+57');</v>
       </c>
     </row>
@@ -17838,7 +17841,7 @@
         <v>1263</v>
       </c>
       <c r="H45" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D45,",'",B45,"','",C45,"',",E45,F45,G45,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'44','COMORAS','KM','COM','+269');</v>
       </c>
     </row>
@@ -17865,7 +17868,7 @@
         <v>1263</v>
       </c>
       <c r="H46" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D46,",'",B46,"','",C46,"',",E46,F46,G46,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'45','CONGO','KM','COM','+269');</v>
       </c>
     </row>
@@ -17892,7 +17895,7 @@
         <v>1264</v>
       </c>
       <c r="H47" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D47,",'",B47,"','",C47,"',",E47,F47,G47,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'46','COREA DEL NORTE','KP','PRK','+850');</v>
       </c>
     </row>
@@ -17919,7 +17922,7 @@
         <v>1265</v>
       </c>
       <c r="H48" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D48,",'",B48,"','",C48,"',",E48,F48,G48,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'47','COREA DEL SUR','KR','KOR','+82');</v>
       </c>
     </row>
@@ -17946,7 +17949,7 @@
         <v>1266</v>
       </c>
       <c r="H49" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D49,",'",B49,"','",C49,"',",E49,F49,G49,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'48','COSTA DE MARﬁL','CI','CIV','+225');</v>
       </c>
     </row>
@@ -17973,7 +17976,7 @@
         <v>1267</v>
       </c>
       <c r="H50" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D50,",'",B50,"','",C50,"',",E50,F50,G50,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'49','COSTA RICA','CR','CRI','+506');</v>
       </c>
     </row>
@@ -18000,7 +18003,7 @@
         <v>1268</v>
       </c>
       <c r="H51" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D51,",'",B51,"','",C51,"',",E51,F51,G51,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'50','CROACIA','HR','HRV','+385');</v>
       </c>
     </row>
@@ -18027,7 +18030,7 @@
         <v>1269</v>
       </c>
       <c r="H52" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D52,",'",B52,"','",C52,"',",E52,F52,G52,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'51','CUBA','CU','CUB','+53');</v>
       </c>
     </row>
@@ -18054,7 +18057,7 @@
         <v>1269</v>
       </c>
       <c r="H53" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D53,",'",B53,"','",C53,"',",E53,F53,G53,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'52','CURAÇAO','CU','CUB','+53');</v>
       </c>
     </row>
@@ -18081,7 +18084,7 @@
         <v>1270</v>
       </c>
       <c r="H54" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D54,",'",B54,"','",C54,"',",E54,F54,G54,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'53','DINAMARCA','DK','DNK','+45');</v>
       </c>
     </row>
@@ -18108,7 +18111,7 @@
         <v>1270</v>
       </c>
       <c r="H55" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D55,",'",B55,"','",C55,"',",E55,F55,G55,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'54','DJIBOUTI','DK','DNK','+45');</v>
       </c>
     </row>
@@ -18135,7 +18138,7 @@
         <v>1271</v>
       </c>
       <c r="H56" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D56,",'",B56,"','",C56,"',",E56,F56,G56,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'55','DOMINICA','DM','DMA','+1767');</v>
       </c>
     </row>
@@ -18162,7 +18165,7 @@
         <v>1272</v>
       </c>
       <c r="H57" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D57,",'",B57,"','",C57,"',",E57,F57,G57,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'56','ECUADOR','EC','ECU','+593');</v>
       </c>
     </row>
@@ -18189,7 +18192,7 @@
         <v>1273</v>
       </c>
       <c r="H58" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D58,",'",B58,"','",C58,"',",E58,F58,G58,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'57','EGIPTO','EG','EGY','+20');</v>
       </c>
     </row>
@@ -18216,7 +18219,7 @@
         <v>1274</v>
       </c>
       <c r="H59" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D59,",'",B59,"','",C59,"',",E59,F59,G59,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'58','EL SALVADOR','SV','SLV','+503');</v>
       </c>
     </row>
@@ -18243,7 +18246,7 @@
         <v>1274</v>
       </c>
       <c r="H60" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D60,",'",B60,"','",C60,"',",E60,F60,G60,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'59','EL VATICANO','SV','SLV','+503');</v>
       </c>
     </row>
@@ -18270,7 +18273,7 @@
         <v>1275</v>
       </c>
       <c r="H61" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D61,",'",B61,"','",C61,"',",E61,F61,G61,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'60','EMIRATOS ÁRABES UNIDOS','AE','ARE','+971');</v>
       </c>
     </row>
@@ -18297,7 +18300,7 @@
         <v>1276</v>
       </c>
       <c r="H62" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D62,",'",B62,"','",C62,"',",E62,F62,G62,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'61','ERITREA','ER','ERI','+291');</v>
       </c>
     </row>
@@ -18324,7 +18327,7 @@
         <v>1277</v>
       </c>
       <c r="H63" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D63,",'",B63,"','",C63,"',",E63,F63,G63,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'62','ESLOVAQUIA','SK','SVK','+421');</v>
       </c>
     </row>
@@ -18351,7 +18354,7 @@
         <v>1278</v>
       </c>
       <c r="H64" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D64,",'",B64,"','",C64,"',",E64,F64,G64,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'63','ESLOVENIA','SI','SVN','+386');</v>
       </c>
     </row>
@@ -18378,7 +18381,7 @@
         <v>1279</v>
       </c>
       <c r="H65" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D65,",'",B65,"','",C65,"',",E65,F65,G65,");")</f>
+        <f t="shared" si="0"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'64','ESPAÑA','ES','ESP','+34');</v>
       </c>
     </row>
@@ -18405,7 +18408,7 @@
         <v>988</v>
       </c>
       <c r="H66" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D66,",'",B66,"','",C66,"',",E66,F66,G66,");")</f>
+        <f t="shared" ref="H66:H129" si="1">_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D66,",'",B66,"','",C66,"',",E66,F66,G66,");")</f>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'65','ESTADO DE PALESTINA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18432,7 +18435,7 @@
         <v>988</v>
       </c>
       <c r="H67" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D67,",'",B67,"','",C67,"',",E67,F67,G67,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'66','ESTADOS UNIDOS DE AMÉRICA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18459,7 +18462,7 @@
         <v>988</v>
       </c>
       <c r="H68" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D68,",'",B68,"','",C68,"',",E68,F68,G68,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'67','ESTONIA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18486,7 +18489,7 @@
         <v>988</v>
       </c>
       <c r="H69" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D69,",'",B69,"','",C69,"',",E69,F69,G69,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'68','ETIOPÍA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18513,7 +18516,7 @@
         <v>1280</v>
       </c>
       <c r="H70" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D70,",'",B70,"','",C70,"',",E70,F70,G70,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'69','FIYI','FJ','FJI','+679');</v>
       </c>
     </row>
@@ -18540,7 +18543,7 @@
         <v>988</v>
       </c>
       <c r="H71" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D71,",'",B71,"','",C71,"',",E71,F71,G71,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'70','FILIPINAS','SN','SN','SN');</v>
       </c>
     </row>
@@ -18567,7 +18570,7 @@
         <v>988</v>
       </c>
       <c r="H72" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D72,",'",B72,"','",C72,"',",E72,F72,G72,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'71','FINLANDIA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18594,7 +18597,7 @@
         <v>988</v>
       </c>
       <c r="H73" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D73,",'",B73,"','",C73,"',",E73,F73,G73,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'72','FRANCIA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18621,7 +18624,7 @@
         <v>988</v>
       </c>
       <c r="H74" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D74,",'",B74,"','",C74,"',",E74,F74,G74,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'73','GABÓN','SN','SN','SN');</v>
       </c>
     </row>
@@ -18648,7 +18651,7 @@
         <v>988</v>
       </c>
       <c r="H75" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D75,",'",B75,"','",C75,"',",E75,F75,G75,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'74','GAMBIA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18675,7 +18678,7 @@
         <v>988</v>
       </c>
       <c r="H76" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D76,",'",B76,"','",C76,"',",E76,F76,G76,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'75','GEORGIA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18702,7 +18705,7 @@
         <v>988</v>
       </c>
       <c r="H77" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D77,",'",B77,"','",C77,"',",E77,F77,G77,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'76','GHANA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18729,7 +18732,7 @@
         <v>988</v>
       </c>
       <c r="H78" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D78,",'",B78,"','",C78,"',",E78,F78,G78,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'77','GIBRALTAR','SN','SN','SN');</v>
       </c>
     </row>
@@ -18756,7 +18759,7 @@
         <v>988</v>
       </c>
       <c r="H79" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D79,",'",B79,"','",C79,"',",E79,F79,G79,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'78','GRANADA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18783,7 +18786,7 @@
         <v>988</v>
       </c>
       <c r="H80" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D80,",'",B80,"','",C80,"',",E80,F80,G80,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'79','GRECIA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18810,7 +18813,7 @@
         <v>988</v>
       </c>
       <c r="H81" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D81,",'",B81,"','",C81,"',",E81,F81,G81,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'80','GROENLANDIA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18837,7 +18840,7 @@
         <v>988</v>
       </c>
       <c r="H82" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D82,",'",B82,"','",C82,"',",E82,F82,G82,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'81','GUADALUPE','SN','SN','SN');</v>
       </c>
     </row>
@@ -18864,7 +18867,7 @@
         <v>988</v>
       </c>
       <c r="H83" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D83,",'",B83,"','",C83,"',",E83,F83,G83,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'82','GUAM','SN','SN','SN');</v>
       </c>
     </row>
@@ -18891,7 +18894,7 @@
         <v>988</v>
       </c>
       <c r="H84" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D84,",'",B84,"','",C84,"',",E84,F84,G84,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'83','GUATEMALA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18918,7 +18921,7 @@
         <v>988</v>
       </c>
       <c r="H85" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D85,",'",B85,"','",C85,"',",E85,F85,G85,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'84','GUAYANA FRANCESA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18945,7 +18948,7 @@
         <v>988</v>
       </c>
       <c r="H86" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D86,",'",B86,"','",C86,"',",E86,F86,G86,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'85','GUERNSEY','SN','SN','SN');</v>
       </c>
     </row>
@@ -18972,7 +18975,7 @@
         <v>988</v>
       </c>
       <c r="H87" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D87,",'",B87,"','",C87,"',",E87,F87,G87,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'86','GUINEA','SN','SN','SN');</v>
       </c>
     </row>
@@ -18999,7 +19002,7 @@
         <v>988</v>
       </c>
       <c r="H88" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D88,",'",B88,"','",C88,"',",E88,F88,G88,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'87','GUINEA ECUATORIAL','SN','SN','SN');</v>
       </c>
     </row>
@@ -19026,7 +19029,7 @@
         <v>988</v>
       </c>
       <c r="H89" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D89,",'",B89,"','",C89,"',",E89,F89,G89,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'88','GUINEA-BISSAU','SN','SN','SN');</v>
       </c>
     </row>
@@ -19053,7 +19056,7 @@
         <v>988</v>
       </c>
       <c r="H90" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D90,",'",B90,"','",C90,"',",E90,F90,G90,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'89','GUYANA','SN','SN','SN');</v>
       </c>
     </row>
@@ -19080,7 +19083,7 @@
         <v>988</v>
       </c>
       <c r="H91" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D91,",'",B91,"','",C91,"',",E91,F91,G91,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'90','HAITÍ','SN','SN','SN');</v>
       </c>
     </row>
@@ -19107,7 +19110,7 @@
         <v>988</v>
       </c>
       <c r="H92" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D92,",'",B92,"','",C92,"',",E92,F92,G92,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'91','HONDURAS','SN','SN','SN');</v>
       </c>
     </row>
@@ -19134,7 +19137,7 @@
         <v>988</v>
       </c>
       <c r="H93" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D93,",'",B93,"','",C93,"',",E93,F93,G93,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'92','HONG KONG','SN','SN','SN');</v>
       </c>
     </row>
@@ -19161,7 +19164,7 @@
         <v>988</v>
       </c>
       <c r="H94" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D94,",'",B94,"','",C94,"',",E94,F94,G94,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'93','HUNGRÍA','SN','SN','SN');</v>
       </c>
     </row>
@@ -19188,7 +19191,7 @@
         <v>988</v>
       </c>
       <c r="H95" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D95,",'",B95,"','",C95,"',",E95,F95,G95,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'94','INDIA','SN','SN','SN');</v>
       </c>
     </row>
@@ -19215,7 +19218,7 @@
         <v>988</v>
       </c>
       <c r="H96" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D96,",'",B96,"','",C96,"',",E96,F96,G96,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'95','INDONESIA','SN','SN','SN');</v>
       </c>
     </row>
@@ -19242,7 +19245,7 @@
         <v>1281</v>
       </c>
       <c r="H97" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D97,",'",B97,"','",C97,"',",E97,F97,G97,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'96','IRAK','IQ','IRQ','+964');</v>
       </c>
     </row>
@@ -19269,7 +19272,7 @@
         <v>988</v>
       </c>
       <c r="H98" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D98,",'",B98,"','",C98,"',",E98,F98,G98,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'97','IRÁN','IM','SN','SN');</v>
       </c>
     </row>
@@ -19296,7 +19299,7 @@
         <v>988</v>
       </c>
       <c r="H99" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D99,",'",B99,"','",C99,"',",E99,F99,G99,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'98','IRLANDA','NF','SN','SN');</v>
       </c>
     </row>
@@ -19323,7 +19326,7 @@
         <v>1282</v>
       </c>
       <c r="H100" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D100,",'",B100,"','",C100,"',",E100,F100,G100,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'99','ISLA DE MAN','IS','IMN','+44');</v>
       </c>
     </row>
@@ -19350,7 +19353,7 @@
         <v>1283</v>
       </c>
       <c r="H101" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D101,",'",B101,"','",C101,"',",E101,F101,G101,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'100','ISLA NORFOLK','IS','NFK','+672');</v>
       </c>
     </row>
@@ -19377,7 +19380,7 @@
         <v>1284</v>
       </c>
       <c r="H102" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D102,",'",B102,"','",C102,"',",E102,F102,G102,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'101','ISLANDIA','KY','ISL','+354');</v>
       </c>
     </row>
@@ -19404,7 +19407,7 @@
         <v>1284</v>
       </c>
       <c r="H103" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D103,",'",B103,"','",C103,"',",E103,F103,G103,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'102','ISLAS ÅLAND','CK','ISL','+354');</v>
       </c>
     </row>
@@ -19431,7 +19434,7 @@
         <v>1285</v>
       </c>
       <c r="H104" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D104,",'",B104,"','",C104,"',",E104,F104,G104,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'103','ISLAS CAIMÁN','FO','CYM','+1345');</v>
       </c>
     </row>
@@ -19458,7 +19461,7 @@
         <v>1286</v>
       </c>
       <c r="H105" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D105,",'",B105,"','",C105,"',",E105,F105,G105,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'104','ISLAS COOK','FK','COK','+682');</v>
       </c>
     </row>
@@ -19485,7 +19488,7 @@
         <v>1287</v>
       </c>
       <c r="H106" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D106,",'",B106,"','",C106,"',",E106,F106,G106,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'105','ISLAS FEROE','MP','FRO','+298');</v>
       </c>
     </row>
@@ -19512,7 +19515,7 @@
         <v>1288</v>
       </c>
       <c r="H107" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D107,",'",B107,"','",C107,"',",E107,F107,G107,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'106','ISLAS MALVINAS (FALKLAND)','MH','FLK','+500');</v>
       </c>
     </row>
@@ -19539,7 +19542,7 @@
         <v>1289</v>
       </c>
       <c r="H108" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D108,",'",B108,"','",C108,"',",E108,F108,G108,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'107','ISLAS MARIANAS DEL NORTE','SB','MNP','+1670');</v>
       </c>
     </row>
@@ -19566,7 +19569,7 @@
         <v>1290</v>
       </c>
       <c r="H109" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D109,",'",B109,"','",C109,"',",E109,F109,G109,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'108','ISLAS MARSHALL','TC','MHL','+692');</v>
       </c>
     </row>
@@ -19593,7 +19596,7 @@
         <v>1291</v>
       </c>
       <c r="H110" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D110,",'",B110,"','",C110,"',",E110,F110,G110,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'109','ISLAS SALOMÓN','UM','SLB','+677');</v>
       </c>
     </row>
@@ -19620,7 +19623,7 @@
         <v>1292</v>
       </c>
       <c r="H111" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D111,",'",B111,"','",C111,"',",E111,F111,G111,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'110','ISLAS TURCAS Y CAICOS','VG','TCA','+1649');</v>
       </c>
     </row>
@@ -19647,7 +19650,7 @@
         <v>1293</v>
       </c>
       <c r="H112" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D112,",'",B112,"','",C112,"',",E112,F112,G112,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'111','ISLAS VÍRGENES AMERICANAS','VI','UMI','+246');</v>
       </c>
     </row>
@@ -19674,7 +19677,7 @@
         <v>1294</v>
       </c>
       <c r="H113" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D113,",'",B113,"','",C113,"',",E113,F113,G113,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'112','ISLAS VÍRGENES BRITÁNICAS','PS','VGB','+1284');</v>
       </c>
     </row>
@@ -19701,7 +19704,7 @@
         <v>1295</v>
       </c>
       <c r="H114" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D114,",'",B114,"','",C114,"',",E114,F114,G114,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'113','ISLAS WALLIS Y FUTUNA','IT','VIR','+1340');</v>
       </c>
     </row>
@@ -19728,7 +19731,7 @@
         <v>1296</v>
       </c>
       <c r="H115" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D115,",'",B115,"','",C115,"',",E115,F115,G115,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'114','ISRAEL','JM','PSE','+970');</v>
       </c>
     </row>
@@ -19755,7 +19758,7 @@
         <v>1297</v>
       </c>
       <c r="H116" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D116,",'",B116,"','",C116,"',",E116,F116,G116,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'115','ITALIA','JP','ITA','+39');</v>
       </c>
     </row>
@@ -19782,7 +19785,7 @@
         <v>1298</v>
       </c>
       <c r="H117" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D117,",'",B117,"','",C117,"',",E117,F117,G117,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'116','JAMAICA','JE','JAM','+1876');</v>
       </c>
     </row>
@@ -19809,7 +19812,7 @@
         <v>1299</v>
       </c>
       <c r="H118" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D118,",'",B118,"','",C118,"',",E118,F118,G118,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'117','JAPÓN','JO','JPN','+81');</v>
       </c>
     </row>
@@ -19836,7 +19839,7 @@
         <v>1282</v>
       </c>
       <c r="H119" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D119,",'",B119,"','",C119,"',",E119,F119,G119,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'118','JERSEY','KZ','JEY','+44');</v>
       </c>
     </row>
@@ -19863,7 +19866,7 @@
         <v>1300</v>
       </c>
       <c r="H120" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D120,",'",B120,"','",C120,"',",E120,F120,G120,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'119','JORDANIA','KE','JOR','+962');</v>
       </c>
     </row>
@@ -19890,7 +19893,7 @@
         <v>1301</v>
       </c>
       <c r="H121" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D121,",'",B121,"','",C121,"',",E121,F121,G121,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'120','KAZAJSTÁN','KG','KAZ','+7');</v>
       </c>
     </row>
@@ -19917,7 +19920,7 @@
         <v>1302</v>
       </c>
       <c r="H122" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D122,",'",B122,"','",C122,"',",E122,F122,G122,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'121','KENYA','KI','KEN','+254');</v>
       </c>
     </row>
@@ -19944,7 +19947,7 @@
         <v>1303</v>
       </c>
       <c r="H123" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D123,",'",B123,"','",C123,"',",E123,F123,G123,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'122','KIRGUISTÁN','KW','KGZ','+996');</v>
       </c>
     </row>
@@ -19971,7 +19974,7 @@
         <v>1304</v>
       </c>
       <c r="H124" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D124,",'",B124,"','",C124,"',",E124,F124,G124,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'123','KIRIBATI','KW','KIR','+686');</v>
       </c>
     </row>
@@ -19998,7 +20001,7 @@
         <v>1305</v>
       </c>
       <c r="H125" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D125,",'",B125,"','",C125,"',",E125,F125,G125,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'124','KUWAIT','KW','KWT','+965');</v>
       </c>
     </row>
@@ -20025,7 +20028,7 @@
         <v>1305</v>
       </c>
       <c r="H126" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D126,",'",B126,"','",C126,"',",E126,F126,G126,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'125','LA EX REPÚBLICA YUGOSLAVA DE MACEDONIA','LV','KWT','+965');</v>
       </c>
     </row>
@@ -20052,7 +20055,7 @@
         <v>1305</v>
       </c>
       <c r="H127" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D127,",'",B127,"','",C127,"',",E127,F127,G127,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'126','LESOTO','LV','KWT','+965');</v>
       </c>
     </row>
@@ -20079,7 +20082,7 @@
         <v>1306</v>
       </c>
       <c r="H128" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D128,",'",B128,"','",C128,"',",E128,F128,G128,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'127','LETONIA','LR','LVA','+371');</v>
       </c>
     </row>
@@ -20106,7 +20109,7 @@
         <v>1306</v>
       </c>
       <c r="H129" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D129,",'",B129,"','",C129,"',",E129,F129,G129,");")</f>
+        <f t="shared" si="1"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'128','LÍBANO','LY','LVA','+371');</v>
       </c>
     </row>
@@ -20133,7 +20136,7 @@
         <v>1307</v>
       </c>
       <c r="H130" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D130,",'",B130,"','",C130,"',",E130,F130,G130,");")</f>
+        <f t="shared" ref="H130:H193" si="2">_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D130,",'",B130,"','",C130,"',",E130,F130,G130,");")</f>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'129','LIBERIA','LI','LBR','+231');</v>
       </c>
     </row>
@@ -20160,7 +20163,7 @@
         <v>1308</v>
       </c>
       <c r="H131" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D131,",'",B131,"','",C131,"',",E131,F131,G131,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'130','LIBIA','LT','LBY','+218');</v>
       </c>
     </row>
@@ -20187,7 +20190,7 @@
         <v>1309</v>
       </c>
       <c r="H132" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D132,",'",B132,"','",C132,"',",E132,F132,G132,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'131','LIECHTENSTEIN','LU','LIE','+423');</v>
       </c>
     </row>
@@ -20214,7 +20217,7 @@
         <v>1310</v>
       </c>
       <c r="H133" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D133,",'",B133,"','",C133,"',",E133,F133,G133,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'132','LITUANIA','LU','LTU','+370');</v>
       </c>
     </row>
@@ -20241,7 +20244,7 @@
         <v>1311</v>
       </c>
       <c r="H134" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D134,",'",B134,"','",C134,"',",E134,F134,G134,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'133','LUXEMBURGO','LU','LUX','+352');</v>
       </c>
     </row>
@@ -20268,7 +20271,7 @@
         <v>1311</v>
       </c>
       <c r="H135" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D135,",'",B135,"','",C135,"',",E135,F135,G135,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'134','MACAO','LU','LUX','+352');</v>
       </c>
     </row>
@@ -20295,7 +20298,7 @@
         <v>1311</v>
       </c>
       <c r="H136" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D136,",'",B136,"','",C136,"',",E136,F136,G136,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'135','MADAGASCAR','MY','LUX','+352');</v>
       </c>
     </row>
@@ -20322,7 +20325,7 @@
         <v>1311</v>
       </c>
       <c r="H137" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D137,",'",B137,"','",C137,"',",E137,F137,G137,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'136','MALASIA','MW','LUX','+352');</v>
       </c>
     </row>
@@ -20349,7 +20352,7 @@
         <v>1312</v>
       </c>
       <c r="H138" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D138,",'",B138,"','",C138,"',",E138,F138,G138,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'137','MALAUI','ML','MYS','+60');</v>
       </c>
     </row>
@@ -20376,7 +20379,7 @@
         <v>1313</v>
       </c>
       <c r="H139" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D139,",'",B139,"','",C139,"',",E139,F139,G139,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'138','MALDIVAS','MT','MWI','+265');</v>
       </c>
     </row>
@@ -20403,7 +20406,7 @@
         <v>1314</v>
       </c>
       <c r="H140" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D140,",'",B140,"','",C140,"',",E140,F140,G140,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'139','MALÍ','MA','MLI','+223');</v>
       </c>
     </row>
@@ -20430,7 +20433,7 @@
         <v>1315</v>
       </c>
       <c r="H141" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D141,",'",B141,"','",C141,"',",E141,F141,G141,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'140','MALTA','MQ','MLT','+356');</v>
       </c>
     </row>
@@ -20457,7 +20460,7 @@
         <v>1316</v>
       </c>
       <c r="H142" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D142,",'",B142,"','",C142,"',",E142,F142,G142,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'141','MARRUECOS','MU','MAR','+212');</v>
       </c>
     </row>
@@ -20484,7 +20487,7 @@
         <v>1317</v>
       </c>
       <c r="H143" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D143,",'",B143,"','",C143,"',",E143,F143,G143,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'142','MARTINICA','MR','MTQ','+596');</v>
       </c>
     </row>
@@ -20511,7 +20514,7 @@
         <v>1318</v>
       </c>
       <c r="H144" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D144,",'",B144,"','",C144,"',",E144,F144,G144,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'143','MAURICIO','PS','MUS','+230');</v>
       </c>
     </row>
@@ -20538,7 +20541,7 @@
         <v>1319</v>
       </c>
       <c r="H145" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D145,",'",B145,"','",C145,"',",E145,F145,G145,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'144','MAURITANIA','YT','MRT','+222');</v>
       </c>
     </row>
@@ -20565,7 +20568,7 @@
         <v>1296</v>
       </c>
       <c r="H146" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D146,",'",B146,"','",C146,"',",E146,F146,G146,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'145','MAYOTTE','FM','PSE','+970');</v>
       </c>
     </row>
@@ -20592,7 +20595,7 @@
         <v>1320</v>
       </c>
       <c r="H147" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D147,",'",B147,"','",C147,"',",E147,F147,G147,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'146','MÉXICO','MD','MYT','+262');</v>
       </c>
     </row>
@@ -20619,7 +20622,7 @@
         <v>1321</v>
       </c>
       <c r="H148" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D148,",'",B148,"','",C148,"',",E148,F148,G148,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'147','MICRONESIA','MN','FSM','+691');</v>
       </c>
     </row>
@@ -20646,7 +20649,7 @@
         <v>1322</v>
       </c>
       <c r="H149" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D149,",'",B149,"','",C149,"',",E149,F149,G149,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'148','MÓNACO','ME','MDA','+373');</v>
       </c>
     </row>
@@ -20673,7 +20676,7 @@
         <v>1323</v>
       </c>
       <c r="H150" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D150,",'",B150,"','",C150,"',",E150,F150,G150,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'149','MONGOLIA','MS','MNG','+976');</v>
       </c>
     </row>
@@ -20700,7 +20703,7 @@
         <v>1324</v>
       </c>
       <c r="H151" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D151,",'",B151,"','",C151,"',",E151,F151,G151,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'150','MONTENEGRO','MZ','MNE','+382');</v>
       </c>
     </row>
@@ -20727,7 +20730,7 @@
         <v>1325</v>
       </c>
       <c r="H152" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D152,",'",B152,"','",C152,"',",E152,F152,G152,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'151','MONTSERRAT','MZ','MSR','+1664');</v>
       </c>
     </row>
@@ -20754,7 +20757,7 @@
         <v>1326</v>
       </c>
       <c r="H153" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D153,",'",B153,"','",C153,"',",E153,F153,G153,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'152','MOZAMBIQUE','NA','MOZ','+258');</v>
       </c>
     </row>
@@ -20781,7 +20784,7 @@
         <v>1326</v>
       </c>
       <c r="H154" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D154,",'",B154,"','",C154,"',",E154,F154,G154,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'153','MYANMAR','NR','MOZ','+258');</v>
       </c>
     </row>
@@ -20808,7 +20811,7 @@
         <v>1327</v>
       </c>
       <c r="H155" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D155,",'",B155,"','",C155,"',",E155,F155,G155,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'154','NAMIBIA','NP','NAM','+264');</v>
       </c>
     </row>
@@ -20835,7 +20838,7 @@
         <v>1328</v>
       </c>
       <c r="H156" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D156,",'",B156,"','",C156,"',",E156,F156,G156,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'155','NAURU','NI','NRU','+674');</v>
       </c>
     </row>
@@ -20862,7 +20865,7 @@
         <v>1329</v>
       </c>
       <c r="H157" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D157,",'",B157,"','",C157,"',",E157,F157,G157,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'156','NEPAL','NE','NPL','+977');</v>
       </c>
     </row>
@@ -20889,7 +20892,7 @@
         <v>1330</v>
       </c>
       <c r="H158" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D158,",'",B158,"','",C158,"',",E158,F158,G158,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'157','NICARAGUA','NG','NIC','+505');</v>
       </c>
     </row>
@@ -20916,7 +20919,7 @@
         <v>1331</v>
       </c>
       <c r="H159" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D159,",'",B159,"','",C159,"',",E159,F159,G159,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'158','NÍGER','NU','NER','+227');</v>
       </c>
     </row>
@@ -20943,7 +20946,7 @@
         <v>1332</v>
       </c>
       <c r="H160" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D160,",'",B160,"','",C160,"',",E160,F160,G160,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'159','NIGERIA','PS','NGA','+234');</v>
       </c>
     </row>
@@ -20970,7 +20973,7 @@
         <v>1333</v>
       </c>
       <c r="H161" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D161,",'",B161,"','",C161,"',",E161,F161,G161,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'160','NIUE','NC','NIU','+683');</v>
       </c>
     </row>
@@ -20997,7 +21000,7 @@
         <v>1296</v>
       </c>
       <c r="H162" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D162,",'",B162,"','",C162,"',",E162,F162,G162,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'161','NORUEGA','NZ','PSE','+970');</v>
       </c>
     </row>
@@ -21024,7 +21027,7 @@
         <v>1334</v>
       </c>
       <c r="H163" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D163,",'",B163,"','",C163,"',",E163,F163,G163,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'162','NUEVA CALEDONIA','OM','NCL','+687');</v>
       </c>
     </row>
@@ -21051,7 +21054,7 @@
         <v>1335</v>
       </c>
       <c r="H164" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D164,",'",B164,"','",C164,"',",E164,F164,G164,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'163','NUEVA ZELANDA','PS','NZL','+64');</v>
       </c>
     </row>
@@ -21078,7 +21081,7 @@
         <v>1336</v>
       </c>
       <c r="H165" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D165,",'",B165,"','",C165,"',",E165,F165,G165,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'164','OMÁN','PK','OMN','+968');</v>
       </c>
     </row>
@@ -21105,7 +21108,7 @@
         <v>1296</v>
       </c>
       <c r="H166" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D166,",'",B166,"','",C166,"',",E166,F166,G166,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'165','PAÍSES BAJOS','PS','PSE','+970');</v>
       </c>
     </row>
@@ -21132,7 +21135,7 @@
         <v>1337</v>
       </c>
       <c r="H167" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D167,",'",B167,"','",C167,"',",E167,F167,G167,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'166','PAKISTÁN','PA','PAK','+92');</v>
       </c>
     </row>
@@ -21159,7 +21162,7 @@
         <v>1296</v>
       </c>
       <c r="H168" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D168,",'",B168,"','",C168,"',",E168,F168,G168,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'167','PALAU','PG','PSE','+970');</v>
       </c>
     </row>
@@ -21186,7 +21189,7 @@
         <v>1338</v>
       </c>
       <c r="H169" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D169,",'",B169,"','",C169,"',",E169,F169,G169,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'168','PANAMÁ','PY','PAN','+507');</v>
       </c>
     </row>
@@ -21213,7 +21216,7 @@
         <v>1339</v>
       </c>
       <c r="H170" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D170,",'",B170,"','",C170,"',",E170,F170,G170,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'169','PAPÚA NUEVA GUINEA','PE','PNG','+675');</v>
       </c>
     </row>
@@ -21240,7 +21243,7 @@
         <v>1340</v>
       </c>
       <c r="H171" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D171,",'",B171,"','",C171,"',",E171,F171,G171,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'170','PARAGUAY','PE','PRY','+595');</v>
       </c>
     </row>
@@ -21267,7 +21270,7 @@
         <v>1341</v>
       </c>
       <c r="H172" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D172,",'",B172,"','",C172,"',",E172,F172,G172,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'171','PERÚ','PE','PER','+51');</v>
       </c>
     </row>
@@ -21294,7 +21297,7 @@
         <v>1341</v>
       </c>
       <c r="H173" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D173,",'",B173,"','",C173,"',",E173,F173,G173,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'172','PITCAIRN','PL','PER','+51');</v>
       </c>
     </row>
@@ -21321,7 +21324,7 @@
         <v>1341</v>
       </c>
       <c r="H174" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D174,",'",B174,"','",C174,"',",E174,F174,G174,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'173','POLINESIA FRANCÉS','PT','PER','+51');</v>
       </c>
     </row>
@@ -21348,7 +21351,7 @@
         <v>1342</v>
       </c>
       <c r="H175" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D175,",'",B175,"','",C175,"',",E175,F175,G175,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'174','POLONIA','PR','POL','+48');</v>
       </c>
     </row>
@@ -21375,7 +21378,7 @@
         <v>1343</v>
       </c>
       <c r="H176" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D176,",'",B176,"','",C176,"',",E176,F176,G176,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'175','PORTUGAL','QA','PRT','+351');</v>
       </c>
     </row>
@@ -21402,7 +21405,7 @@
         <v>1257</v>
       </c>
       <c r="H177" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D177,",'",B177,"','",C177,"',",E177,F177,G177,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'176','PUERTO RICO','GB','PRI','+1');</v>
       </c>
     </row>
@@ -21429,7 +21432,7 @@
         <v>1344</v>
       </c>
       <c r="H178" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D178,",'",B178,"','",C178,"',",E178,F178,G178,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'177','QATAR','GB','QAT','+974');</v>
       </c>
     </row>
@@ -21456,7 +21459,7 @@
         <v>1282</v>
       </c>
       <c r="H179" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D179,",'",B179,"','",C179,"',",E179,F179,G179,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'178','REINO UNIDO DE GRAN BRETAÑA E IRLANDA DEL NORTE','CF','GBR','+44');</v>
       </c>
     </row>
@@ -21483,7 +21486,7 @@
         <v>1282</v>
       </c>
       <c r="H180" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D180,",'",B180,"','",C180,"',",E180,F180,G180,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'179','REPÚBLICA ÁRABE SIRIA','CZ','GBR','+44');</v>
       </c>
     </row>
@@ -21510,7 +21513,7 @@
         <v>1345</v>
       </c>
       <c r="H181" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D181,",'",B181,"','",C181,"',",E181,F181,G181,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'180','REPÚBLICA CENTROAFRICANA','CZ','CAF','+236');</v>
       </c>
     </row>
@@ -21537,7 +21540,7 @@
         <v>1346</v>
       </c>
       <c r="H182" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D182,",'",B182,"','",C182,"',",E182,F182,G182,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'181','REPÚBLICA CHECA','SS','CZE','+420');</v>
       </c>
     </row>
@@ -21564,7 +21567,7 @@
         <v>1346</v>
       </c>
       <c r="H183" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D183,",'",B183,"','",C183,"',",E183,F183,G183,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'182','REPÚBLICA DE MOLDAVIA','CZ','CZE','+420');</v>
       </c>
     </row>
@@ -21591,7 +21594,7 @@
         <v>1347</v>
       </c>
       <c r="H184" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D184,",'",B184,"','",C184,"',",E184,F184,G184,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'183','REPÚBLICA DEMOCRÁTICA DEL CONGO','SS','SSD','+211');</v>
       </c>
     </row>
@@ -21618,7 +21621,7 @@
         <v>1346</v>
       </c>
       <c r="H185" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D185,",'",B185,"','",C185,"',",E185,F185,G185,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'184','REPÚBLICA DEMOCRÁTICA POPULAR LAO','SS','CZE','+420');</v>
       </c>
     </row>
@@ -21645,7 +21648,7 @@
         <v>1347</v>
       </c>
       <c r="H186" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D186,",'",B186,"','",C186,"',",E186,F186,G186,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'185','REPÚBLICA DOMINICANA','RE','SSD','+211');</v>
       </c>
     </row>
@@ -21672,7 +21675,7 @@
         <v>1347</v>
       </c>
       <c r="H187" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D187,",'",B187,"','",C187,"',",E187,F187,G187,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'186','REPÚBLICA UNIDA DE TANZANIA','RO','SSD','+211');</v>
       </c>
     </row>
@@ -21699,7 +21702,7 @@
         <v>1320</v>
       </c>
       <c r="H188" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D188,",'",B188,"','",C188,"',",E188,F188,G188,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'187','RÉUNION','RU','REU','+262');</v>
       </c>
     </row>
@@ -21726,7 +21729,7 @@
         <v>1348</v>
       </c>
       <c r="H189" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D189,",'",B189,"','",C189,"',",E189,F189,G189,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'188','RUMANIA','RU','ROU','+40');</v>
       </c>
     </row>
@@ -21753,7 +21756,7 @@
         <v>1301</v>
       </c>
       <c r="H190" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D190,",'",B190,"','",C190,"',",E190,F190,G190,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'189','RUSIA','EH','RUS','+7');</v>
       </c>
     </row>
@@ -21780,7 +21783,7 @@
         <v>1301</v>
       </c>
       <c r="H191" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D191,",'",B191,"','",C191,"',",E191,F191,G191,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'190','RWANDA','EH','RUS','+7');</v>
       </c>
     </row>
@@ -21807,7 +21810,7 @@
         <v>1316</v>
       </c>
       <c r="H192" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D192,",'",B192,"','",C192,"',",E192,F192,G192,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'191','SÁHARA OCCIDENTAL','EH','ESH','+212');</v>
       </c>
     </row>
@@ -21834,7 +21837,7 @@
         <v>1316</v>
       </c>
       <c r="H193" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D193,",'",B193,"','",C193,"',",E193,F193,G193,");")</f>
+        <f t="shared" si="2"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'192','SAINT-BARTHÉLEMY','WS','ESH','+212');</v>
       </c>
     </row>
@@ -21861,7 +21864,7 @@
         <v>1316</v>
       </c>
       <c r="H194" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D194,",'",B194,"','",C194,"',",E194,F194,G194,");")</f>
+        <f t="shared" ref="H194:H257" si="3">_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D194,",'",B194,"','",C194,"',",E194,F194,G194,");")</f>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'193','SAINT-MARTIN','AS','ESH','+212');</v>
       </c>
     </row>
@@ -21888,7 +21891,7 @@
         <v>1349</v>
       </c>
       <c r="H195" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D195,",'",B195,"','",C195,"',",E195,F195,G195,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'194','SAMOA','KN','WSM','+685');</v>
       </c>
     </row>
@@ -21915,7 +21918,7 @@
         <v>1350</v>
       </c>
       <c r="H196" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D196,",'",B196,"','",C196,"',",E196,F196,G196,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'195','SAMOA AMERICANA','SM','ASM','+1684');</v>
       </c>
     </row>
@@ -21942,7 +21945,7 @@
         <v>1351</v>
       </c>
       <c r="H197" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D197,",'",B197,"','",C197,"',",E197,F197,G197,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'196','SAN CRISTÓBAL Y NIEVES','PM','KNA','+1869');</v>
       </c>
     </row>
@@ -21969,7 +21972,7 @@
         <v>1352</v>
       </c>
       <c r="H198" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D198,",'",B198,"','",C198,"',",E198,F198,G198,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'197','SAN MARINO','VC','SMR','+378');</v>
       </c>
     </row>
@@ -21996,7 +21999,7 @@
         <v>1353</v>
       </c>
       <c r="H199" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D199,",'",B199,"','",C199,"',",E199,F199,G199,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'198','SAN PEDRO Y MIQUELÓN','SH','SPM','+508');</v>
       </c>
     </row>
@@ -22023,7 +22026,7 @@
         <v>1354</v>
       </c>
       <c r="H200" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D200,",'",B200,"','",C200,"',",E200,F200,G200,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'199','SAN VICENTE Y LAS GRANADINAS','LC','VCT','+1784');</v>
       </c>
     </row>
@@ -22050,7 +22053,7 @@
         <v>1355</v>
       </c>
       <c r="H201" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D201,",'",B201,"','",C201,"',",E201,F201,G201,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'200','SANTA ELENA','ST','SHN','+290');</v>
       </c>
     </row>
@@ -22077,7 +22080,7 @@
         <v>1356</v>
       </c>
       <c r="H202" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D202,",'",B202,"','",C202,"',",E202,F202,G202,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'201','SANTA LUCÍA','SN','LCA','+1758');</v>
       </c>
     </row>
@@ -22104,7 +22107,7 @@
         <v>1357</v>
       </c>
       <c r="H203" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D203,",'",B203,"','",C203,"',",E203,F203,G203,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'202','SANTO TOMÉ Y PRÍNCIPE','RS','STP','+239');</v>
       </c>
     </row>
@@ -22131,7 +22134,7 @@
         <v>1358</v>
       </c>
       <c r="H204" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D204,",'",B204,"','",C204,"',",E204,F204,G204,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'203','SENEGAL','SC','SEN','+221');</v>
       </c>
     </row>
@@ -22158,7 +22161,7 @@
         <v>1359</v>
       </c>
       <c r="H205" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D205,",'",B205,"','",C205,"',",E205,F205,G205,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'204','SERBIA','SL','SRB','+381');</v>
       </c>
     </row>
@@ -22185,7 +22188,7 @@
         <v>1360</v>
       </c>
       <c r="H206" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D206,",'",B206,"','",C206,"',",E206,F206,G206,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'205','SEYCHELLES','SG','SYC','+248');</v>
       </c>
     </row>
@@ -22212,7 +22215,7 @@
         <v>1361</v>
       </c>
       <c r="H207" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D207,",'",B207,"','",C207,"',",E207,F207,G207,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'206','SIERRA LEONA','SX','SLE','+232');</v>
       </c>
     </row>
@@ -22239,7 +22242,7 @@
         <v>1362</v>
       </c>
       <c r="H208" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D208,",'",B208,"','",C208,"',",E208,F208,G208,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'207','SINGAPUR','SO','SGP','+65');</v>
       </c>
     </row>
@@ -22266,7 +22269,7 @@
         <v>1363</v>
       </c>
       <c r="H209" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D209,",'",B209,"','",C209,"',",E209,F209,G209,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'208','SINT MAARTEN','LK','SMX','+1721');</v>
       </c>
     </row>
@@ -22293,7 +22296,7 @@
         <v>1364</v>
       </c>
       <c r="H210" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D210,",'",B210,"','",C210,"',",E210,F210,G210,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'209','SOMALIA','ZA','SOM','+252');</v>
       </c>
     </row>
@@ -22320,7 +22323,7 @@
         <v>1365</v>
       </c>
       <c r="H211" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D211,",'",B211,"','",C211,"',",E211,F211,G211,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'210','SRI LANKA','SD','LKA','+94');</v>
       </c>
     </row>
@@ -22347,7 +22350,7 @@
         <v>1366</v>
       </c>
       <c r="H212" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D212,",'",B212,"','",C212,"',",E212,F212,G212,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'211','SUDÁFRICA','SD','ZAF','+27');</v>
       </c>
     </row>
@@ -22374,7 +22377,7 @@
         <v>1367</v>
       </c>
       <c r="H213" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D213,",'",B213,"','",C213,"',",E213,F213,G213,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'212','SUDÁN','SE','SDN','+249');</v>
       </c>
     </row>
@@ -22401,7 +22404,7 @@
         <v>1367</v>
       </c>
       <c r="H214" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D214,",'",B214,"','",C214,"',",E214,F214,G214,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'213','SUDÁN DEL SUR','CH','SDN','+249');</v>
       </c>
     </row>
@@ -22428,7 +22431,7 @@
         <v>1368</v>
       </c>
       <c r="H215" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D215,",'",B215,"','",C215,"',",E215,F215,G215,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'214','SUECIA','SR','SWE','+46');</v>
       </c>
     </row>
@@ -22455,7 +22458,7 @@
         <v>1369</v>
       </c>
       <c r="H216" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D216,",'",B216,"','",C216,"',",E216,F216,G216,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'215','SUIZA','SJ','CHE','+41');</v>
       </c>
     </row>
@@ -22482,7 +22485,7 @@
         <v>1370</v>
       </c>
       <c r="H217" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D217,",'",B217,"','",C217,"',",E217,F217,G217,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'216','SURINAME','SZ','SUR','+597');</v>
       </c>
     </row>
@@ -22509,7 +22512,7 @@
         <v>1371</v>
       </c>
       <c r="H218" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D218,",'",B218,"','",C218,"',",E218,F218,G218,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'217','SVALBARD Y JAN MAYEN','TH','SJM','+47');</v>
       </c>
     </row>
@@ -22536,7 +22539,7 @@
         <v>1372</v>
       </c>
       <c r="H219" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D219,",'",B219,"','",C219,"',",E219,F219,G219,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'218','SWAZILANDIA','TJ','SWZ','+268');</v>
       </c>
     </row>
@@ -22563,7 +22566,7 @@
         <v>1373</v>
       </c>
       <c r="H220" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D220,",'",B220,"','",C220,"',",E220,F220,G220,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'219','TAILANDIA','TL','THA','+66');</v>
       </c>
     </row>
@@ -22590,7 +22593,7 @@
         <v>1374</v>
       </c>
       <c r="H221" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D221,",'",B221,"','",C221,"',",E221,F221,G221,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'220','TAYIKISTÁN','TG','TJK','+992');</v>
       </c>
     </row>
@@ -22617,7 +22620,7 @@
         <v>1375</v>
       </c>
       <c r="H222" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D222,",'",B222,"','",C222,"',",E222,F222,G222,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'221','TIMOR-LESTE','TK','TLS','+670');</v>
       </c>
     </row>
@@ -22644,7 +22647,7 @@
         <v>1376</v>
       </c>
       <c r="H223" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D223,",'",B223,"','",C223,"',",E223,F223,G223,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'222','TOGO','TO','TGO','+228');</v>
       </c>
     </row>
@@ -22671,7 +22674,7 @@
         <v>1377</v>
       </c>
       <c r="H224" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D224,",'",B224,"','",C224,"',",E224,F224,G224,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'223','TOKELAU','TT','TKL','+690');</v>
       </c>
     </row>
@@ -22698,7 +22701,7 @@
         <v>1378</v>
       </c>
       <c r="H225" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D225,",'",B225,"','",C225,"',",E225,F225,G225,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'224','TONGA','TN','TON','+676');</v>
       </c>
     </row>
@@ -22725,7 +22728,7 @@
         <v>1379</v>
       </c>
       <c r="H226" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D226,",'",B226,"','",C226,"',",E226,F226,G226,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'225','TRINIDAD Y TOBAGO','TM','TTO','+1868');</v>
       </c>
     </row>
@@ -22752,7 +22755,7 @@
         <v>1380</v>
       </c>
       <c r="H227" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D227,",'",B227,"','",C227,"',",E227,F227,G227,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'226','TÚNEZ','TR','TUN','+216');</v>
       </c>
     </row>
@@ -22779,7 +22782,7 @@
         <v>1381</v>
       </c>
       <c r="H228" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D228,",'",B228,"','",C228,"',",E228,F228,G228,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'227','TURKMENISTÁN','TV','TKM','+993');</v>
       </c>
     </row>
@@ -22806,7 +22809,7 @@
         <v>1382</v>
       </c>
       <c r="H229" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D229,",'",B229,"','",C229,"',",E229,F229,G229,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'228','TURQUÍA','UA','TUR','+90');</v>
       </c>
     </row>
@@ -22833,7 +22836,7 @@
         <v>1383</v>
       </c>
       <c r="H230" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D230,",'",B230,"','",C230,"',",E230,F230,G230,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'229','TUVALU','UG','TUV','+688');</v>
       </c>
     </row>
@@ -22860,7 +22863,7 @@
         <v>1384</v>
       </c>
       <c r="H231" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D231,",'",B231,"','",C231,"',",E231,F231,G231,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'230','UCRANIA','UY','UKR','+380');</v>
       </c>
     </row>
@@ -22887,7 +22890,7 @@
         <v>1385</v>
       </c>
       <c r="H232" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D232,",'",B232,"','",C232,"',",E232,F232,G232,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'231','UGANDA','UZ','UGA','+256');</v>
       </c>
     </row>
@@ -22914,7 +22917,7 @@
         <v>1386</v>
       </c>
       <c r="H233" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D233,",'",B233,"','",C233,"',",E233,F233,G233,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'232','URUGUAY','VU','URY','+598');</v>
       </c>
     </row>
@@ -22941,7 +22944,7 @@
         <v>1387</v>
       </c>
       <c r="H234" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D234,",'",B234,"','",C234,"',",E234,F234,G234,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'233','UZBEKISTÁN','VE','UZB','+998');</v>
       </c>
     </row>
@@ -22968,7 +22971,7 @@
         <v>1388</v>
       </c>
       <c r="H235" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D235,",'",B235,"','",C235,"',",E235,F235,G235,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'234','VANUATU','VE','VUT','+678');</v>
       </c>
     </row>
@@ -22995,7 +22998,7 @@
         <v>1389</v>
       </c>
       <c r="H236" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D236,",'",B236,"','",C236,"',",E236,F236,G236,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'235','VENEZUELA','YE','VEN','+58');</v>
       </c>
     </row>
@@ -23022,7 +23025,7 @@
         <v>1389</v>
       </c>
       <c r="H237" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D237,",'",B237,"','",C237,"',",E237,F237,G237,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'236','VIET NAM','ZM','VEN','+58');</v>
       </c>
     </row>
@@ -23049,7 +23052,7 @@
         <v>1390</v>
       </c>
       <c r="H238" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D238,",'",B238,"','",C238,"',",E238,F238,G238,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'237','YEMEN','ZW','YEM','+967');</v>
       </c>
     </row>
@@ -23076,7 +23079,7 @@
         <v>1391</v>
       </c>
       <c r="H239" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D239,",'",B239,"','",C239,"',",E239,F239,G239,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'238','ZAMBIA','ZM','ZMB','+260');</v>
       </c>
     </row>
@@ -23103,7 +23106,7 @@
         <v>1392</v>
       </c>
       <c r="H240" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D240,",'",B240,"','",C240,"',",E240,F240,G240,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'239','ZIMBABWE','ZW','ZWE','+263');</v>
       </c>
     </row>
@@ -23130,7 +23133,7 @@
         <v>988</v>
       </c>
       <c r="H241" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D241,",'",B241,"','",C241,"',",E241,F241,G241,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'240','ANTÁRTIDA','SN','SN','SN');</v>
       </c>
     </row>
@@ -23157,7 +23160,7 @@
         <v>988</v>
       </c>
       <c r="H242" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D242,",'",B242,"','",C242,"',",E242,F242,G242,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'241','ISLA BOUVET','SN','SN','SN');</v>
       </c>
     </row>
@@ -23184,7 +23187,7 @@
         <v>988</v>
       </c>
       <c r="H243" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D243,",'",B243,"','",C243,"',",E243,F243,G243,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'242','TERRITORIO BRITÁNICO DE LA OCÉANO ÍNDICO','SN','SN','SN');</v>
       </c>
     </row>
@@ -23211,7 +23214,7 @@
         <v>988</v>
       </c>
       <c r="H244" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D244,",'",B244,"','",C244,"',",E244,F244,G244,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'243','TAIWÁN','SN','SN','SN');</v>
       </c>
     </row>
@@ -23238,7 +23241,7 @@
         <v>988</v>
       </c>
       <c r="H245" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D245,",'",B245,"','",C245,"',",E245,F245,G245,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'244','ISLA DE NAVIDAD','SN','SN','SN');</v>
       </c>
     </row>
@@ -23265,7 +23268,7 @@
         <v>988</v>
       </c>
       <c r="H246" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D246,",'",B246,"','",C246,"',",E246,F246,G246,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'245','ISLAS COCOS','SN','SN','SN');</v>
       </c>
     </row>
@@ -23292,7 +23295,7 @@
         <v>988</v>
       </c>
       <c r="H247" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D247,",'",B247,"','",C247,"',",E247,F247,G247,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'246','GEORGIA DEL SUR Y LAS ISLAS SANDWICH DEL SUR','SN','SN','SN');</v>
       </c>
     </row>
@@ -23319,7 +23322,7 @@
         <v>988</v>
       </c>
       <c r="H248" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D248,",'",B248,"','",C248,"',",E248,F248,G248,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'247','TERRITORIOS AUSTRALES FRANCESES','SN','SN','SN');</v>
       </c>
     </row>
@@ -23346,7 +23349,7 @@
         <v>988</v>
       </c>
       <c r="H249" t="str">
-        <f>_xlfn.CONCAT("insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(",D249,",'",B249,"','",C249,"',",E249,F249,G249,");")</f>
+        <f t="shared" si="3"/>
         <v>insert into authentication.locations(type_id,code,name,alpha2_code,alpha3_code,calling_code) values(1,'999','NO REGISTRA','SN','SN','SN');</v>
       </c>
     </row>
